--- a/Java On-line program_schedule.xlsx
+++ b/Java On-line program_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26021"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olena_Plokha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{CD35BEBA-FCF7-4634-9A4F-2FE4725C6937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF2329A-3A30-4052-AE4D-6591E92A2371}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{CD35BEBA-FCF7-4634-9A4F-2FE4725C6937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB889DCF-EE8B-4FE9-BE0E-355E584C7E34}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{C9497EFA-6ED6-44CA-8164-11FC4D561632}"/>
   </bookViews>
@@ -1597,6 +1597,30 @@
     <xf numFmtId="16" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1609,6 +1633,51 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,6 +1687,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1630,85 +1711,256 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,51 +1972,6 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,213 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2002,7 +2002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2290,7 +2290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2316,12 +2316,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2330,34 +2330,34 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87">
         <v>44879</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="3">
         <v>44880</v>
       </c>
@@ -2366,24 +2366,24 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61">
         <v>44893</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="30.6" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="3">
         <v>44894</v>
       </c>
@@ -2392,36 +2392,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61">
         <v>44901</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="76">
         <v>44904</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="3">
         <v>44907</v>
       </c>
@@ -2430,24 +2430,24 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61">
         <v>44911</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="3">
         <v>44914</v>
       </c>
@@ -2456,24 +2456,24 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61">
         <v>44918</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:7" ht="33.6" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="3">
         <v>44922</v>
       </c>
@@ -2482,47 +2482,47 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61">
         <v>44565</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="67">
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76">
         <v>44571</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="3">
         <v>44572</v>
       </c>
@@ -2531,24 +2531,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61">
         <v>44574</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="1:6" ht="48.6" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="3">
         <v>44577</v>
       </c>
@@ -2557,24 +2557,24 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61">
         <v>44581</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="3">
         <v>44584</v>
       </c>
@@ -2583,58 +2583,58 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61">
         <v>44586</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76">
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70">
         <v>44588</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="67">
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76">
         <v>44591</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
     </row>
     <row r="25" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" ht="47.45" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="3">
         <v>44592</v>
       </c>
@@ -2643,24 +2643,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61">
         <v>44600</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="3">
         <v>44601</v>
       </c>
@@ -2669,24 +2669,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61">
         <v>44607</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="1:6" ht="48.6" customHeight="1">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="3">
         <v>44608</v>
       </c>
@@ -2695,58 +2695,58 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="53">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="61">
         <v>44615</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76">
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70">
         <v>44616</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="67">
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76">
         <v>44620</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
     </row>
     <row r="35" spans="1:6" ht="50.45" customHeight="1">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="3">
         <v>44621</v>
       </c>
@@ -2755,24 +2755,24 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61">
         <v>44630</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6" ht="45" customHeight="1">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="3">
         <v>44633</v>
       </c>
@@ -2781,58 +2781,58 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.6" customHeight="1">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61">
         <v>44636</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76">
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70">
         <v>44640</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="67">
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76">
         <v>44641</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="81"/>
     </row>
     <row r="42" spans="1:6" ht="36" customHeight="1">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="3">
         <v>44642</v>
       </c>
@@ -2841,24 +2841,24 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61">
         <v>45012</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:6" ht="36.6" customHeight="1">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="3">
         <v>44648</v>
       </c>
@@ -2867,36 +2867,36 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="26.45" customHeight="1">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61">
         <v>45015</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
     </row>
     <row r="46" spans="1:6" ht="32.450000000000003" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83">
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="64">
         <v>45020</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
     </row>
     <row r="47" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="3">
         <v>44651</v>
       </c>
@@ -2905,24 +2905,24 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61">
         <v>45022</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="3">
         <v>44658</v>
       </c>
@@ -2931,38 +2931,38 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61">
         <v>45027</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
     </row>
     <row r="51" spans="1:10" ht="38.1" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="86" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="88"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
     </row>
     <row r="54" spans="1:10" s="9" customFormat="1">
       <c r="A54" s="2"/>
@@ -3050,28 +3050,50 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A30:D30"/>
@@ -3086,50 +3108,28 @@
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -3140,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE83ECC6-80AA-4A45-8DD4-EA1D4921CAF9}">
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3156,15 +3156,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -3179,12 +3179,12 @@
       <c r="C2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="171"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -3192,26 +3192,26 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="47.1" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="178" t="s">
+      <c r="E3" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="161" t="s">
+      <c r="G3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="90" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="180"/>
@@ -3220,33 +3220,33 @@
       <c r="L3" s="180"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A4" s="174"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="180"/>
       <c r="J4" s="180"/>
       <c r="K4" s="180"/>
       <c r="L4" s="180"/>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -3282,26 +3282,26 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A7" s="122">
+      <c r="A7" s="109">
         <v>1</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="112" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="157">
+      <c r="H7" s="124">
         <v>44881</v>
       </c>
       <c r="I7" s="180"/>
@@ -3310,106 +3310,106 @@
       <c r="L7" s="180"/>
     </row>
     <row r="8" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A8" s="123"/>
-      <c r="B8" s="159"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
       <c r="L8" s="180"/>
     </row>
     <row r="9" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="180"/>
       <c r="J9" s="180"/>
       <c r="K9" s="180"/>
       <c r="L9" s="180"/>
     </row>
     <row r="10" spans="1:12" ht="33.6" customHeight="1">
-      <c r="A10" s="123"/>
-      <c r="B10" s="159"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
       <c r="I10" s="180"/>
       <c r="J10" s="180"/>
       <c r="K10" s="180"/>
       <c r="L10" s="180"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
-      <c r="A11" s="123"/>
-      <c r="B11" s="159"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="180"/>
       <c r="J11" s="180"/>
       <c r="K11" s="180"/>
       <c r="L11" s="180"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="180"/>
       <c r="J12" s="180"/>
       <c r="K12" s="180"/>
       <c r="L12" s="180"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
-      <c r="A13" s="122">
+      <c r="A13" s="109">
         <v>2</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="112" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="102" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="157">
+      <c r="H13" s="124">
         <v>44881</v>
       </c>
       <c r="I13" s="180"/>
@@ -3418,106 +3418,106 @@
       <c r="L13" s="180"/>
     </row>
     <row r="14" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A14" s="123"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="180"/>
       <c r="J14" s="180"/>
       <c r="K14" s="180"/>
       <c r="L14" s="180"/>
     </row>
     <row r="15" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="159"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="180"/>
       <c r="J15" s="180"/>
       <c r="K15" s="180"/>
       <c r="L15" s="180"/>
     </row>
     <row r="16" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A16" s="123"/>
-      <c r="B16" s="159"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
       <c r="I16" s="180"/>
       <c r="J16" s="180"/>
       <c r="K16" s="180"/>
       <c r="L16" s="180"/>
     </row>
     <row r="17" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="159"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="180"/>
       <c r="J17" s="180"/>
       <c r="K17" s="180"/>
       <c r="L17" s="180"/>
     </row>
     <row r="18" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A18" s="124"/>
-      <c r="B18" s="160"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
       <c r="I18" s="180"/>
       <c r="J18" s="180"/>
       <c r="K18" s="180"/>
       <c r="L18" s="180"/>
     </row>
     <row r="19" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A19" s="122">
+      <c r="A19" s="109">
         <v>3</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="125" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="102" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="124">
         <v>44886</v>
       </c>
       <c r="I19" s="180"/>
@@ -3526,74 +3526,74 @@
       <c r="L19" s="180"/>
     </row>
     <row r="20" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A20" s="123"/>
-      <c r="B20" s="143"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="180"/>
       <c r="J20" s="180"/>
       <c r="K20" s="180"/>
       <c r="L20" s="180"/>
     </row>
     <row r="21" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="143"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="180"/>
       <c r="J21" s="180"/>
       <c r="K21" s="180"/>
       <c r="L21" s="180"/>
     </row>
     <row r="22" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A22" s="124"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
       <c r="I22" s="180"/>
       <c r="J22" s="180"/>
       <c r="K22" s="180"/>
       <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="122">
+      <c r="A23" s="109">
         <v>4</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="125" t="s">
         <v>91</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="102" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="157">
+      <c r="H23" s="124">
         <v>44892</v>
       </c>
       <c r="I23" s="180"/>
@@ -3602,83 +3602,83 @@
       <c r="L23" s="180"/>
     </row>
     <row r="24" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="143"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="180"/>
       <c r="J24" s="180"/>
       <c r="K24" s="180"/>
       <c r="L24" s="180"/>
     </row>
     <row r="25" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="143"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="180"/>
       <c r="J25" s="180"/>
       <c r="K25" s="180"/>
       <c r="L25" s="180"/>
     </row>
     <row r="26" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="143"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="180"/>
       <c r="J26" s="180"/>
       <c r="K26" s="180"/>
       <c r="L26" s="180"/>
     </row>
     <row r="27" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
       <c r="I27" s="180"/>
       <c r="J27" s="180"/>
       <c r="K27" s="180"/>
       <c r="L27" s="180"/>
     </row>
     <row r="28" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3686,26 +3686,26 @@
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A29" s="122">
+      <c r="A29" s="109">
         <v>5</v>
       </c>
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="125" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="102" t="s">
+      <c r="D29" s="115"/>
+      <c r="E29" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="157">
+      <c r="H29" s="124">
         <v>44894</v>
       </c>
       <c r="I29" s="180"/>
@@ -3714,154 +3714,154 @@
       <c r="L29" s="180"/>
     </row>
     <row r="30" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A30" s="123"/>
-      <c r="B30" s="143"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
       <c r="I30" s="180"/>
       <c r="J30" s="180"/>
       <c r="K30" s="180"/>
       <c r="L30" s="180"/>
     </row>
     <row r="31" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A31" s="123"/>
-      <c r="B31" s="143"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="180"/>
       <c r="J31" s="180"/>
       <c r="K31" s="180"/>
       <c r="L31" s="180"/>
     </row>
     <row r="32" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A32" s="123"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="180"/>
       <c r="J32" s="180"/>
       <c r="K32" s="180"/>
       <c r="L32" s="180"/>
     </row>
     <row r="33" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A33" s="123"/>
-      <c r="B33" s="143"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
       <c r="K33" s="180"/>
       <c r="L33" s="180"/>
     </row>
     <row r="34" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A34" s="123"/>
-      <c r="B34" s="143"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
       <c r="I34" s="180"/>
       <c r="J34" s="180"/>
       <c r="K34" s="180"/>
       <c r="L34" s="180"/>
     </row>
     <row r="35" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="180"/>
       <c r="J35" s="180"/>
       <c r="K35" s="180"/>
       <c r="L35" s="180"/>
     </row>
     <row r="36" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A36" s="123"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
       <c r="I36" s="180"/>
       <c r="J36" s="180"/>
       <c r="K36" s="180"/>
       <c r="L36" s="180"/>
     </row>
     <row r="37" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="144"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
       <c r="I37" s="180"/>
       <c r="J37" s="180"/>
       <c r="K37" s="180"/>
       <c r="L37" s="180"/>
     </row>
     <row r="38" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A38" s="151">
+      <c r="A38" s="131">
         <v>6</v>
       </c>
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="125" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="102" t="s">
+      <c r="D38" s="115"/>
+      <c r="E38" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="99" t="s">
+      <c r="F38" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="157">
+      <c r="H38" s="124">
         <v>44906</v>
       </c>
       <c r="I38" s="180"/>
@@ -3870,115 +3870,115 @@
       <c r="L38" s="180"/>
     </row>
     <row r="39" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="143"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="180"/>
       <c r="J39" s="180"/>
       <c r="K39" s="180"/>
       <c r="L39" s="180"/>
     </row>
     <row r="40" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="143"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="180"/>
       <c r="J40" s="180"/>
       <c r="K40" s="180"/>
       <c r="L40" s="180"/>
     </row>
     <row r="41" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A41" s="152"/>
-      <c r="B41" s="143"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
       <c r="I41" s="180"/>
       <c r="J41" s="180"/>
       <c r="K41" s="180"/>
       <c r="L41" s="180"/>
     </row>
     <row r="42" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A42" s="152"/>
-      <c r="B42" s="143"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
       <c r="I42" s="180"/>
       <c r="J42" s="180"/>
       <c r="K42" s="180"/>
       <c r="L42" s="180"/>
     </row>
     <row r="43" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="143"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
       <c r="I43" s="180"/>
       <c r="J43" s="180"/>
       <c r="K43" s="180"/>
       <c r="L43" s="180"/>
     </row>
     <row r="44" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A44" s="153"/>
-      <c r="B44" s="144"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
       <c r="I44" s="180"/>
       <c r="J44" s="180"/>
       <c r="K44" s="180"/>
       <c r="L44" s="180"/>
     </row>
     <row r="45" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="93" t="s">
+      <c r="E45" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="95"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3986,19 +3986,19 @@
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
       <c r="D46" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="176"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -4006,26 +4006,26 @@
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A47" s="151">
+      <c r="A47" s="131">
         <v>7</v>
       </c>
-      <c r="B47" s="142" t="s">
+      <c r="B47" s="125" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="102" t="s">
+      <c r="D47" s="115"/>
+      <c r="E47" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="99" t="s">
+      <c r="F47" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="99" t="s">
+      <c r="G47" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="157">
+      <c r="H47" s="124">
         <v>44907</v>
       </c>
       <c r="I47" s="180"/>
@@ -4034,48 +4034,48 @@
       <c r="L47" s="180"/>
     </row>
     <row r="48" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A48" s="152"/>
-      <c r="B48" s="143"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
       <c r="I48" s="180"/>
       <c r="J48" s="180"/>
       <c r="K48" s="180"/>
       <c r="L48" s="180"/>
     </row>
     <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="152"/>
-      <c r="B49" s="143"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="146"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
       <c r="I49" s="180"/>
       <c r="J49" s="180"/>
       <c r="K49" s="180"/>
       <c r="L49" s="180"/>
     </row>
     <row r="50" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A50" s="153"/>
-      <c r="B50" s="144"/>
+      <c r="A50" s="133"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
       <c r="I50" s="180"/>
       <c r="J50" s="180"/>
       <c r="K50" s="180"/>
@@ -4110,19 +4110,19 @@
       <c r="L51" s="27"/>
     </row>
     <row r="52" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="95"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="159"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -4130,26 +4130,26 @@
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1">
-      <c r="A53" s="151">
+      <c r="A53" s="131">
         <v>9</v>
       </c>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="125" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="145"/>
-      <c r="E53" s="102" t="s">
+      <c r="D53" s="115"/>
+      <c r="E53" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="99" t="s">
+      <c r="F53" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="99" t="s">
+      <c r="G53" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="H53" s="157">
+      <c r="H53" s="124">
         <v>44916</v>
       </c>
       <c r="I53" s="180"/>
@@ -4158,58 +4158,58 @@
       <c r="L53" s="180"/>
     </row>
     <row r="54" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A54" s="152"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="132"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="146"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
       <c r="I54" s="180"/>
       <c r="J54" s="180"/>
       <c r="K54" s="180"/>
       <c r="L54" s="180"/>
     </row>
     <row r="55" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A55" s="153"/>
-      <c r="B55" s="144"/>
+      <c r="A55" s="133"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
       <c r="I55" s="180"/>
       <c r="J55" s="180"/>
       <c r="K55" s="180"/>
       <c r="L55" s="180"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1">
-      <c r="A56" s="151">
+      <c r="A56" s="131">
         <v>10</v>
       </c>
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="125" t="s">
         <v>142</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="154"/>
-      <c r="E56" s="102" t="s">
+      <c r="D56" s="137"/>
+      <c r="E56" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="99" t="s">
+      <c r="F56" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="99" t="s">
+      <c r="G56" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="157">
+      <c r="H56" s="124">
         <v>44917</v>
       </c>
       <c r="I56" s="180"/>
@@ -4218,48 +4218,48 @@
       <c r="L56" s="180"/>
     </row>
     <row r="57" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A57" s="152"/>
-      <c r="B57" s="143"/>
+      <c r="A57" s="132"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="155"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
       <c r="I57" s="180"/>
       <c r="J57" s="180"/>
       <c r="K57" s="180"/>
       <c r="L57" s="180"/>
     </row>
     <row r="58" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A58" s="152"/>
-      <c r="B58" s="143"/>
+      <c r="A58" s="132"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="155"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
       <c r="I58" s="180"/>
       <c r="J58" s="180"/>
       <c r="K58" s="180"/>
       <c r="L58" s="180"/>
     </row>
     <row r="59" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A59" s="153"/>
-      <c r="B59" s="144"/>
+      <c r="A59" s="133"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="156"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
       <c r="I59" s="180"/>
       <c r="J59" s="180"/>
       <c r="K59" s="180"/>
@@ -4276,29 +4276,29 @@
         <v>150</v>
       </c>
       <c r="D60" s="19"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="123"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" ht="26.45" customHeight="1">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="130"/>
       <c r="D61" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="93" t="s">
+      <c r="E61" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F61" s="94"/>
-      <c r="G61" s="95"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="159"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4306,74 +4306,76 @@
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" ht="24" customHeight="1">
-      <c r="A62" s="151">
+      <c r="A62" s="131">
         <v>12</v>
       </c>
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="125" t="s">
         <v>151</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="145"/>
-      <c r="E62" s="102" t="s">
+      <c r="D62" s="115"/>
+      <c r="E62" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="99" t="s">
+      <c r="F62" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="G62" s="99" t="s">
+      <c r="G62" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="H62" s="99"/>
+      <c r="H62" s="124">
+        <v>44922</v>
+      </c>
       <c r="I62" s="180"/>
       <c r="J62" s="180"/>
       <c r="K62" s="180"/>
       <c r="L62" s="180"/>
     </row>
     <row r="63" spans="1:12" ht="24" customHeight="1">
-      <c r="A63" s="152"/>
-      <c r="B63" s="143"/>
+      <c r="A63" s="132"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="146"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
       <c r="I63" s="180"/>
       <c r="J63" s="180"/>
       <c r="K63" s="180"/>
       <c r="L63" s="180"/>
     </row>
     <row r="64" spans="1:12" ht="33.950000000000003" customHeight="1">
-      <c r="A64" s="152"/>
-      <c r="B64" s="143"/>
+      <c r="A64" s="132"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="146"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
       <c r="I64" s="180"/>
       <c r="J64" s="180"/>
       <c r="K64" s="180"/>
       <c r="L64" s="180"/>
     </row>
     <row r="65" spans="1:12" ht="25.35" customHeight="1">
-      <c r="A65" s="153"/>
-      <c r="B65" s="144"/>
+      <c r="A65" s="133"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
       <c r="I65" s="180"/>
       <c r="J65" s="180"/>
       <c r="K65" s="180"/>
@@ -4399,168 +4401,170 @@
       <c r="G66" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H66" s="14"/>
+      <c r="H66" s="51">
+        <v>44922</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A67" s="151">
+      <c r="A67" s="131">
         <v>14</v>
       </c>
-      <c r="B67" s="142" t="s">
+      <c r="B67" s="125" t="s">
         <v>160</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="145"/>
-      <c r="E67" s="102" t="s">
+      <c r="D67" s="115"/>
+      <c r="E67" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="99" t="s">
+      <c r="F67" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="G67" s="99" t="s">
+      <c r="G67" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="H67" s="99"/>
+      <c r="H67" s="121"/>
       <c r="I67" s="180"/>
       <c r="J67" s="180"/>
       <c r="K67" s="180"/>
       <c r="L67" s="180"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A68" s="152"/>
-      <c r="B68" s="143"/>
+      <c r="A68" s="132"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="146"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="122"/>
       <c r="I68" s="180"/>
       <c r="J68" s="180"/>
       <c r="K68" s="180"/>
       <c r="L68" s="180"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A69" s="153"/>
-      <c r="B69" s="144"/>
+      <c r="A69" s="133"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="147"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
       <c r="I69" s="180"/>
       <c r="J69" s="180"/>
       <c r="K69" s="180"/>
       <c r="L69" s="180"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A70" s="151">
+      <c r="A70" s="131">
         <v>15</v>
       </c>
-      <c r="B70" s="142" t="s">
+      <c r="B70" s="125" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="145"/>
-      <c r="E70" s="102" t="s">
+      <c r="D70" s="115"/>
+      <c r="E70" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="99" t="s">
+      <c r="F70" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="99" t="s">
+      <c r="G70" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="H70" s="99"/>
+      <c r="H70" s="121"/>
       <c r="I70" s="180"/>
       <c r="J70" s="180"/>
       <c r="K70" s="180"/>
       <c r="L70" s="180"/>
     </row>
     <row r="71" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A71" s="153"/>
-      <c r="B71" s="144"/>
+      <c r="A71" s="133"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="147"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="123"/>
+      <c r="H71" s="123"/>
       <c r="I71" s="180"/>
       <c r="J71" s="180"/>
       <c r="K71" s="180"/>
       <c r="L71" s="180"/>
     </row>
     <row r="72" spans="1:12" ht="23.1" customHeight="1">
-      <c r="A72" s="151">
+      <c r="A72" s="131">
         <v>16</v>
       </c>
-      <c r="B72" s="142" t="s">
+      <c r="B72" s="125" t="s">
         <v>170</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="102" t="s">
+      <c r="D72" s="115"/>
+      <c r="E72" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="99" t="s">
+      <c r="F72" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="G72" s="99" t="s">
+      <c r="G72" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="H72" s="99"/>
+      <c r="H72" s="121"/>
       <c r="I72" s="180"/>
       <c r="J72" s="180"/>
       <c r="K72" s="180"/>
       <c r="L72" s="180"/>
     </row>
     <row r="73" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A73" s="153"/>
-      <c r="B73" s="144"/>
+      <c r="A73" s="133"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="147"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="101"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
       <c r="I73" s="180"/>
       <c r="J73" s="180"/>
       <c r="K73" s="180"/>
       <c r="L73" s="180"/>
     </row>
     <row r="74" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="114"/>
-      <c r="C74" s="115"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="130"/>
       <c r="D74" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="93" t="s">
+      <c r="E74" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="95"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="159"/>
       <c r="H74" s="31"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -4568,19 +4572,19 @@
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A75" s="105" t="s">
+      <c r="A75" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="106"/>
-      <c r="C75" s="107"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="136"/>
       <c r="D75" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="91"/>
-      <c r="G75" s="92"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="176"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -4588,157 +4592,157 @@
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A76" s="151">
+      <c r="A76" s="131">
         <v>1</v>
       </c>
-      <c r="B76" s="125" t="s">
+      <c r="B76" s="143" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="102" t="s">
+      <c r="D76" s="121"/>
+      <c r="E76" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="99" t="s">
+      <c r="F76" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="G76" s="148" t="s">
+      <c r="G76" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="H76" s="148"/>
+      <c r="H76" s="140"/>
       <c r="I76" s="180"/>
       <c r="J76" s="180"/>
       <c r="K76" s="180"/>
       <c r="L76" s="180"/>
     </row>
     <row r="77" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A77" s="152"/>
-      <c r="B77" s="126"/>
+      <c r="A77" s="132"/>
+      <c r="B77" s="144"/>
       <c r="C77" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="149"/>
-      <c r="H77" s="149"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="141"/>
+      <c r="H77" s="141"/>
       <c r="I77" s="180"/>
       <c r="J77" s="180"/>
       <c r="K77" s="180"/>
       <c r="L77" s="180"/>
     </row>
     <row r="78" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A78" s="152"/>
-      <c r="B78" s="126"/>
+      <c r="A78" s="132"/>
+      <c r="B78" s="144"/>
       <c r="C78" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D78" s="100"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="100"/>
-      <c r="G78" s="149"/>
-      <c r="H78" s="149"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="141"/>
+      <c r="H78" s="141"/>
       <c r="I78" s="180"/>
       <c r="J78" s="180"/>
       <c r="K78" s="180"/>
       <c r="L78" s="180"/>
     </row>
     <row r="79" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A79" s="152"/>
-      <c r="B79" s="126"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="100"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="149"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="122"/>
+      <c r="G79" s="141"/>
+      <c r="H79" s="141"/>
       <c r="I79" s="180"/>
       <c r="J79" s="180"/>
       <c r="K79" s="180"/>
       <c r="L79" s="180"/>
     </row>
     <row r="80" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A80" s="152"/>
-      <c r="B80" s="126"/>
+      <c r="A80" s="132"/>
+      <c r="B80" s="144"/>
       <c r="C80" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D80" s="100"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="149"/>
-      <c r="H80" s="149"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="141"/>
+      <c r="H80" s="141"/>
       <c r="I80" s="180"/>
       <c r="J80" s="180"/>
       <c r="K80" s="180"/>
       <c r="L80" s="180"/>
     </row>
     <row r="81" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="126"/>
+      <c r="A81" s="132"/>
+      <c r="B81" s="144"/>
       <c r="C81" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D81" s="100"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="149"/>
-      <c r="H81" s="149"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="141"/>
+      <c r="H81" s="141"/>
       <c r="I81" s="180"/>
       <c r="J81" s="180"/>
       <c r="K81" s="180"/>
       <c r="L81" s="180"/>
     </row>
     <row r="82" spans="1:12" ht="65.099999999999994" customHeight="1">
-      <c r="A82" s="152"/>
-      <c r="B82" s="126"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="144"/>
       <c r="C82" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D82" s="100"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="149"/>
-      <c r="H82" s="149"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="141"/>
+      <c r="H82" s="141"/>
       <c r="I82" s="180"/>
       <c r="J82" s="180"/>
       <c r="K82" s="180"/>
       <c r="L82" s="180"/>
     </row>
     <row r="83" spans="1:12" ht="18" customHeight="1">
-      <c r="A83" s="153"/>
-      <c r="B83" s="127"/>
+      <c r="A83" s="133"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="104"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="150"/>
-      <c r="H83" s="150"/>
+      <c r="D83" s="123"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
       <c r="I83" s="180"/>
       <c r="J83" s="180"/>
       <c r="K83" s="180"/>
       <c r="L83" s="180"/>
     </row>
     <row r="84" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="115"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="130"/>
       <c r="D84" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="93" t="s">
+      <c r="E84" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F84" s="94"/>
-      <c r="G84" s="95"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="159"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -4746,183 +4750,183 @@
       <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" ht="26.45" customHeight="1">
-      <c r="A85" s="151">
+      <c r="A85" s="131">
         <v>2</v>
       </c>
-      <c r="B85" s="125" t="s">
+      <c r="B85" s="143" t="s">
         <v>187</v>
       </c>
       <c r="C85" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="128"/>
-      <c r="E85" s="102" t="s">
+      <c r="D85" s="146"/>
+      <c r="E85" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F85" s="99" t="s">
+      <c r="F85" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="G85" s="148" t="s">
+      <c r="G85" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="148"/>
+      <c r="H85" s="140"/>
       <c r="I85" s="180"/>
       <c r="J85" s="180"/>
       <c r="K85" s="180"/>
       <c r="L85" s="180"/>
     </row>
     <row r="86" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A86" s="153"/>
-      <c r="B86" s="127"/>
+      <c r="A86" s="133"/>
+      <c r="B86" s="145"/>
       <c r="C86" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="130"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="150"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
       <c r="I86" s="180"/>
       <c r="J86" s="180"/>
       <c r="K86" s="180"/>
       <c r="L86" s="180"/>
     </row>
     <row r="87" spans="1:12" ht="24" customHeight="1">
-      <c r="A87" s="151">
+      <c r="A87" s="131">
         <v>3</v>
       </c>
-      <c r="B87" s="125" t="s">
+      <c r="B87" s="143" t="s">
         <v>192</v>
       </c>
       <c r="C87" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="128"/>
-      <c r="E87" s="102" t="s">
+      <c r="D87" s="146"/>
+      <c r="E87" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="99" t="s">
+      <c r="F87" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="G87" s="148" t="s">
+      <c r="G87" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="H87" s="148"/>
+      <c r="H87" s="140"/>
       <c r="I87" s="180"/>
       <c r="J87" s="180"/>
       <c r="K87" s="181"/>
       <c r="L87" s="180"/>
     </row>
     <row r="88" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A88" s="152"/>
-      <c r="B88" s="126"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="144"/>
       <c r="C88" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="129"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="149"/>
-      <c r="H88" s="149"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="122"/>
+      <c r="G88" s="141"/>
+      <c r="H88" s="141"/>
       <c r="I88" s="180"/>
       <c r="J88" s="180"/>
       <c r="K88" s="181"/>
       <c r="L88" s="180"/>
     </row>
     <row r="89" spans="1:12" ht="21" customHeight="1">
-      <c r="A89" s="152"/>
-      <c r="B89" s="126"/>
+      <c r="A89" s="132"/>
+      <c r="B89" s="144"/>
       <c r="C89" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="129"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="149"/>
-      <c r="H89" s="149"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="119"/>
+      <c r="F89" s="122"/>
+      <c r="G89" s="141"/>
+      <c r="H89" s="141"/>
       <c r="I89" s="180"/>
       <c r="J89" s="180"/>
       <c r="K89" s="181"/>
       <c r="L89" s="180"/>
     </row>
     <row r="90" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A90" s="152"/>
-      <c r="B90" s="126"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="144"/>
       <c r="C90" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="129"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="149"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="122"/>
+      <c r="G90" s="141"/>
+      <c r="H90" s="141"/>
       <c r="I90" s="180"/>
       <c r="J90" s="180"/>
       <c r="K90" s="181"/>
       <c r="L90" s="180"/>
     </row>
     <row r="91" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A91" s="152"/>
-      <c r="B91" s="126"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="144"/>
       <c r="C91" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D91" s="129"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="149"/>
-      <c r="H91" s="149"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="122"/>
+      <c r="G91" s="141"/>
+      <c r="H91" s="141"/>
       <c r="I91" s="180"/>
       <c r="J91" s="180"/>
       <c r="K91" s="181"/>
       <c r="L91" s="180"/>
     </row>
     <row r="92" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A92" s="152"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="144"/>
       <c r="C92" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D92" s="129"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="149"/>
-      <c r="H92" s="149"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="119"/>
+      <c r="F92" s="122"/>
+      <c r="G92" s="141"/>
+      <c r="H92" s="141"/>
       <c r="I92" s="180"/>
       <c r="J92" s="180"/>
       <c r="K92" s="181"/>
       <c r="L92" s="180"/>
     </row>
     <row r="93" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A93" s="153"/>
-      <c r="B93" s="127"/>
+      <c r="A93" s="133"/>
+      <c r="B93" s="145"/>
       <c r="C93" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="D93" s="130"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="150"/>
-      <c r="H93" s="150"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="123"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
       <c r="I93" s="180"/>
       <c r="J93" s="180"/>
       <c r="K93" s="181"/>
       <c r="L93" s="180"/>
     </row>
     <row r="94" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="115"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="130"/>
       <c r="D94" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E94" s="93" t="s">
+      <c r="E94" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F94" s="94"/>
-      <c r="G94" s="95"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="159"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -4930,205 +4934,205 @@
       <c r="L94" s="12"/>
     </row>
     <row r="95" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A95" s="151">
+      <c r="A95" s="131">
         <v>4</v>
       </c>
-      <c r="B95" s="125" t="s">
+      <c r="B95" s="143" t="s">
         <v>202</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D95" s="128"/>
-      <c r="E95" s="102" t="s">
+      <c r="D95" s="146"/>
+      <c r="E95" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F95" s="99" t="s">
+      <c r="F95" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="148" t="s">
+      <c r="G95" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="H95" s="148"/>
+      <c r="H95" s="140"/>
       <c r="I95" s="180"/>
       <c r="J95" s="180"/>
       <c r="K95" s="180"/>
       <c r="L95" s="180"/>
     </row>
     <row r="96" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A96" s="152"/>
-      <c r="B96" s="126"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="144"/>
       <c r="C96" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="129"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="100"/>
-      <c r="G96" s="149"/>
-      <c r="H96" s="149"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="122"/>
+      <c r="G96" s="141"/>
+      <c r="H96" s="141"/>
       <c r="I96" s="180"/>
       <c r="J96" s="180"/>
       <c r="K96" s="180"/>
       <c r="L96" s="180"/>
     </row>
     <row r="97" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A97" s="152"/>
-      <c r="B97" s="126"/>
+      <c r="A97" s="132"/>
+      <c r="B97" s="144"/>
       <c r="C97" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="129"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="100"/>
-      <c r="G97" s="149"/>
-      <c r="H97" s="149"/>
+      <c r="D97" s="148"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="141"/>
+      <c r="H97" s="141"/>
       <c r="I97" s="180"/>
       <c r="J97" s="180"/>
       <c r="K97" s="180"/>
       <c r="L97" s="180"/>
     </row>
     <row r="98" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A98" s="152"/>
-      <c r="B98" s="126"/>
+      <c r="A98" s="132"/>
+      <c r="B98" s="144"/>
       <c r="C98" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="129"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="149"/>
-      <c r="H98" s="149"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="122"/>
+      <c r="G98" s="141"/>
+      <c r="H98" s="141"/>
       <c r="I98" s="180"/>
       <c r="J98" s="180"/>
       <c r="K98" s="180"/>
       <c r="L98" s="180"/>
     </row>
     <row r="99" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A99" s="152"/>
-      <c r="B99" s="126"/>
+      <c r="A99" s="132"/>
+      <c r="B99" s="144"/>
       <c r="C99" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="129"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="149"/>
+      <c r="D99" s="148"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="122"/>
+      <c r="G99" s="141"/>
+      <c r="H99" s="141"/>
       <c r="I99" s="180"/>
       <c r="J99" s="180"/>
       <c r="K99" s="180"/>
       <c r="L99" s="180"/>
     </row>
     <row r="100" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A100" s="152"/>
-      <c r="B100" s="126"/>
+      <c r="A100" s="132"/>
+      <c r="B100" s="144"/>
       <c r="C100" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D100" s="129"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="149"/>
-      <c r="H100" s="149"/>
+      <c r="D100" s="148"/>
+      <c r="E100" s="119"/>
+      <c r="F100" s="122"/>
+      <c r="G100" s="141"/>
+      <c r="H100" s="141"/>
       <c r="I100" s="180"/>
       <c r="J100" s="180"/>
       <c r="K100" s="180"/>
       <c r="L100" s="180"/>
     </row>
     <row r="101" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A101" s="152"/>
-      <c r="B101" s="126"/>
+      <c r="A101" s="132"/>
+      <c r="B101" s="144"/>
       <c r="C101" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="129"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="149"/>
-      <c r="H101" s="149"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="141"/>
+      <c r="H101" s="141"/>
       <c r="I101" s="180"/>
       <c r="J101" s="180"/>
       <c r="K101" s="180"/>
       <c r="L101" s="180"/>
     </row>
     <row r="102" spans="1:12" ht="22.7" customHeight="1">
-      <c r="A102" s="152"/>
-      <c r="B102" s="126"/>
+      <c r="A102" s="132"/>
+      <c r="B102" s="144"/>
       <c r="C102" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D102" s="129"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="149"/>
-      <c r="H102" s="149"/>
+      <c r="D102" s="148"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="122"/>
+      <c r="G102" s="141"/>
+      <c r="H102" s="141"/>
       <c r="I102" s="180"/>
       <c r="J102" s="180"/>
       <c r="K102" s="180"/>
       <c r="L102" s="180"/>
     </row>
     <row r="103" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A103" s="152"/>
-      <c r="B103" s="126"/>
+      <c r="A103" s="132"/>
+      <c r="B103" s="144"/>
       <c r="C103" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="D103" s="129"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="149"/>
-      <c r="H103" s="149"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="122"/>
+      <c r="G103" s="141"/>
+      <c r="H103" s="141"/>
       <c r="I103" s="180"/>
       <c r="J103" s="180"/>
       <c r="K103" s="180"/>
       <c r="L103" s="180"/>
     </row>
     <row r="104" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A104" s="152"/>
-      <c r="B104" s="126"/>
+      <c r="A104" s="132"/>
+      <c r="B104" s="144"/>
       <c r="C104" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="129"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="100"/>
-      <c r="G104" s="149"/>
-      <c r="H104" s="149"/>
+      <c r="D104" s="148"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="122"/>
+      <c r="G104" s="141"/>
+      <c r="H104" s="141"/>
       <c r="I104" s="180"/>
       <c r="J104" s="180"/>
       <c r="K104" s="180"/>
       <c r="L104" s="180"/>
     </row>
     <row r="105" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A105" s="153"/>
-      <c r="B105" s="127"/>
+      <c r="A105" s="133"/>
+      <c r="B105" s="145"/>
       <c r="C105" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="130"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="150"/>
-      <c r="H105" s="150"/>
+      <c r="D105" s="147"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="142"/>
+      <c r="H105" s="142"/>
       <c r="I105" s="180"/>
       <c r="J105" s="180"/>
       <c r="K105" s="180"/>
       <c r="L105" s="180"/>
     </row>
     <row r="106" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A106" s="113" t="s">
+      <c r="A106" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="114"/>
-      <c r="C106" s="115"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="130"/>
       <c r="D106" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E106" s="93" t="s">
+      <c r="E106" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F106" s="94"/>
-      <c r="G106" s="95"/>
+      <c r="F106" s="158"/>
+      <c r="G106" s="159"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
@@ -5139,18 +5143,18 @@
       <c r="A107" s="37">
         <v>5</v>
       </c>
-      <c r="B107" s="140" t="s">
+      <c r="B107" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="141"/>
+      <c r="C107" s="150"/>
       <c r="D107" s="38">
         <v>44953</v>
       </c>
-      <c r="E107" s="96" t="s">
+      <c r="E107" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="F107" s="97"/>
-      <c r="G107" s="98"/>
+      <c r="F107" s="152"/>
+      <c r="G107" s="153"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
@@ -5158,19 +5162,19 @@
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A108" s="105" t="s">
+      <c r="A108" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="106"/>
-      <c r="C108" s="107"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="136"/>
       <c r="D108" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="E108" s="90" t="s">
+      <c r="E108" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="91"/>
-      <c r="G108" s="92"/>
+      <c r="F108" s="175"/>
+      <c r="G108" s="176"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -5204,141 +5208,141 @@
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A110" s="122">
+      <c r="A110" s="109">
         <v>2</v>
       </c>
-      <c r="B110" s="125" t="s">
+      <c r="B110" s="143" t="s">
         <v>221</v>
       </c>
       <c r="C110" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="D110" s="128"/>
-      <c r="E110" s="102" t="s">
+      <c r="D110" s="146"/>
+      <c r="E110" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="99" t="s">
+      <c r="F110" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="G110" s="148" t="s">
+      <c r="G110" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="H110" s="148"/>
+      <c r="H110" s="140"/>
       <c r="I110" s="180"/>
       <c r="J110" s="180"/>
       <c r="K110" s="180"/>
       <c r="L110" s="180"/>
     </row>
     <row r="111" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A111" s="123"/>
-      <c r="B111" s="126"/>
+      <c r="A111" s="110"/>
+      <c r="B111" s="144"/>
       <c r="C111" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="D111" s="129"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="100"/>
-      <c r="G111" s="149"/>
-      <c r="H111" s="149"/>
+      <c r="D111" s="148"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="122"/>
+      <c r="G111" s="141"/>
+      <c r="H111" s="141"/>
       <c r="I111" s="180"/>
       <c r="J111" s="180"/>
       <c r="K111" s="180"/>
       <c r="L111" s="180"/>
     </row>
     <row r="112" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A112" s="123"/>
-      <c r="B112" s="126"/>
+      <c r="A112" s="110"/>
+      <c r="B112" s="144"/>
       <c r="C112" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="129"/>
-      <c r="E112" s="103"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="149"/>
-      <c r="H112" s="149"/>
+      <c r="D112" s="148"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="122"/>
+      <c r="G112" s="141"/>
+      <c r="H112" s="141"/>
       <c r="I112" s="180"/>
       <c r="J112" s="180"/>
       <c r="K112" s="180"/>
       <c r="L112" s="180"/>
     </row>
     <row r="113" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A113" s="123"/>
-      <c r="B113" s="126"/>
+      <c r="A113" s="110"/>
+      <c r="B113" s="144"/>
       <c r="C113" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="D113" s="129"/>
-      <c r="E113" s="103"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="149"/>
-      <c r="H113" s="149"/>
+      <c r="D113" s="148"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="122"/>
+      <c r="G113" s="141"/>
+      <c r="H113" s="141"/>
       <c r="I113" s="180"/>
       <c r="J113" s="180"/>
       <c r="K113" s="180"/>
       <c r="L113" s="180"/>
     </row>
     <row r="114" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A114" s="123"/>
-      <c r="B114" s="126"/>
+      <c r="A114" s="110"/>
+      <c r="B114" s="144"/>
       <c r="C114" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D114" s="129"/>
-      <c r="E114" s="103"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="149"/>
-      <c r="H114" s="149"/>
+      <c r="D114" s="148"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="122"/>
+      <c r="G114" s="141"/>
+      <c r="H114" s="141"/>
       <c r="I114" s="180"/>
       <c r="J114" s="180"/>
       <c r="K114" s="180"/>
       <c r="L114" s="180"/>
     </row>
     <row r="115" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A115" s="123"/>
-      <c r="B115" s="126"/>
+      <c r="A115" s="110"/>
+      <c r="B115" s="144"/>
       <c r="C115" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="129"/>
-      <c r="E115" s="103"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="149"/>
-      <c r="H115" s="149"/>
+      <c r="D115" s="148"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="122"/>
+      <c r="G115" s="141"/>
+      <c r="H115" s="141"/>
       <c r="I115" s="180"/>
       <c r="J115" s="180"/>
       <c r="K115" s="180"/>
       <c r="L115" s="180"/>
     </row>
     <row r="116" spans="1:12" ht="22.35" customHeight="1">
-      <c r="A116" s="124"/>
-      <c r="B116" s="127"/>
+      <c r="A116" s="111"/>
+      <c r="B116" s="145"/>
       <c r="C116" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D116" s="130"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="101"/>
-      <c r="G116" s="150"/>
-      <c r="H116" s="150"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="120"/>
+      <c r="F116" s="123"/>
+      <c r="G116" s="142"/>
+      <c r="H116" s="142"/>
       <c r="I116" s="180"/>
       <c r="J116" s="180"/>
       <c r="K116" s="180"/>
       <c r="L116" s="180"/>
     </row>
     <row r="117" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A117" s="113" t="s">
+      <c r="A117" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="114"/>
-      <c r="C117" s="115"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="130"/>
       <c r="D117" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E117" s="93" t="s">
+      <c r="E117" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F117" s="94"/>
-      <c r="G117" s="95"/>
+      <c r="F117" s="158"/>
+      <c r="G117" s="159"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -5346,157 +5350,157 @@
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A118" s="122">
+      <c r="A118" s="109">
         <v>3</v>
       </c>
-      <c r="B118" s="125" t="s">
+      <c r="B118" s="143" t="s">
         <v>232</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D118" s="128"/>
-      <c r="E118" s="102" t="s">
+      <c r="D118" s="146"/>
+      <c r="E118" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="F118" s="99" t="s">
+      <c r="F118" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="G118" s="99" t="s">
+      <c r="G118" s="121" t="s">
         <v>236</v>
       </c>
-      <c r="H118" s="99"/>
+      <c r="H118" s="121"/>
       <c r="I118" s="180"/>
       <c r="J118" s="180"/>
       <c r="K118" s="180"/>
       <c r="L118" s="180"/>
     </row>
     <row r="119" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A119" s="123"/>
-      <c r="B119" s="126"/>
+      <c r="A119" s="110"/>
+      <c r="B119" s="144"/>
       <c r="C119" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D119" s="129"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="100"/>
-      <c r="G119" s="100"/>
-      <c r="H119" s="100"/>
+      <c r="D119" s="148"/>
+      <c r="E119" s="119"/>
+      <c r="F119" s="122"/>
+      <c r="G119" s="122"/>
+      <c r="H119" s="122"/>
       <c r="I119" s="180"/>
       <c r="J119" s="180"/>
       <c r="K119" s="180"/>
       <c r="L119" s="180"/>
     </row>
     <row r="120" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A120" s="123"/>
-      <c r="B120" s="126"/>
+      <c r="A120" s="110"/>
+      <c r="B120" s="144"/>
       <c r="C120" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D120" s="129"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="100"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
+      <c r="D120" s="148"/>
+      <c r="E120" s="119"/>
+      <c r="F120" s="122"/>
+      <c r="G120" s="122"/>
+      <c r="H120" s="122"/>
       <c r="I120" s="180"/>
       <c r="J120" s="180"/>
       <c r="K120" s="180"/>
       <c r="L120" s="180"/>
     </row>
     <row r="121" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A121" s="123"/>
-      <c r="B121" s="126"/>
+      <c r="A121" s="110"/>
+      <c r="B121" s="144"/>
       <c r="C121" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D121" s="129"/>
-      <c r="E121" s="103"/>
-      <c r="F121" s="100"/>
-      <c r="G121" s="100"/>
-      <c r="H121" s="100"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="122"/>
+      <c r="H121" s="122"/>
       <c r="I121" s="180"/>
       <c r="J121" s="180"/>
       <c r="K121" s="180"/>
       <c r="L121" s="180"/>
     </row>
     <row r="122" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A122" s="123"/>
-      <c r="B122" s="126"/>
+      <c r="A122" s="110"/>
+      <c r="B122" s="144"/>
       <c r="C122" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D122" s="129"/>
-      <c r="E122" s="103"/>
-      <c r="F122" s="100"/>
-      <c r="G122" s="100"/>
-      <c r="H122" s="100"/>
+      <c r="D122" s="148"/>
+      <c r="E122" s="119"/>
+      <c r="F122" s="122"/>
+      <c r="G122" s="122"/>
+      <c r="H122" s="122"/>
       <c r="I122" s="180"/>
       <c r="J122" s="180"/>
       <c r="K122" s="180"/>
       <c r="L122" s="180"/>
     </row>
     <row r="123" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A123" s="123"/>
-      <c r="B123" s="126"/>
+      <c r="A123" s="110"/>
+      <c r="B123" s="144"/>
       <c r="C123" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D123" s="129"/>
-      <c r="E123" s="103"/>
-      <c r="F123" s="100"/>
-      <c r="G123" s="100"/>
-      <c r="H123" s="100"/>
+      <c r="D123" s="148"/>
+      <c r="E123" s="119"/>
+      <c r="F123" s="122"/>
+      <c r="G123" s="122"/>
+      <c r="H123" s="122"/>
       <c r="I123" s="180"/>
       <c r="J123" s="180"/>
       <c r="K123" s="180"/>
       <c r="L123" s="180"/>
     </row>
     <row r="124" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A124" s="123"/>
-      <c r="B124" s="126"/>
+      <c r="A124" s="110"/>
+      <c r="B124" s="144"/>
       <c r="C124" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="129"/>
-      <c r="E124" s="103"/>
-      <c r="F124" s="100"/>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="119"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
       <c r="I124" s="180"/>
       <c r="J124" s="180"/>
       <c r="K124" s="180"/>
       <c r="L124" s="180"/>
     </row>
     <row r="125" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A125" s="124"/>
-      <c r="B125" s="127"/>
+      <c r="A125" s="111"/>
+      <c r="B125" s="145"/>
       <c r="C125" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D125" s="130"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="101"/>
-      <c r="H125" s="101"/>
+      <c r="D125" s="147"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="123"/>
+      <c r="G125" s="123"/>
+      <c r="H125" s="123"/>
       <c r="I125" s="180"/>
       <c r="J125" s="180"/>
       <c r="K125" s="180"/>
       <c r="L125" s="180"/>
     </row>
     <row r="126" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A126" s="113" t="s">
+      <c r="A126" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="114"/>
-      <c r="C126" s="115"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="130"/>
       <c r="D126" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="E126" s="93" t="s">
+      <c r="E126" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F126" s="94"/>
-      <c r="G126" s="95"/>
+      <c r="F126" s="158"/>
+      <c r="G126" s="159"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -5504,209 +5508,209 @@
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:12" ht="21" customHeight="1">
-      <c r="A127" s="122">
+      <c r="A127" s="109">
         <v>4</v>
       </c>
-      <c r="B127" s="125" t="s">
+      <c r="B127" s="143" t="s">
         <v>244</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D127" s="128"/>
-      <c r="E127" s="102" t="s">
+      <c r="D127" s="146"/>
+      <c r="E127" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="F127" s="99" t="s">
+      <c r="F127" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="G127" s="99" t="s">
+      <c r="G127" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="H127" s="99"/>
+      <c r="H127" s="121"/>
       <c r="I127" s="180"/>
       <c r="J127" s="180"/>
       <c r="K127" s="180"/>
       <c r="L127" s="180"/>
     </row>
     <row r="128" spans="1:12" ht="21" customHeight="1">
-      <c r="A128" s="123"/>
-      <c r="B128" s="126"/>
+      <c r="A128" s="110"/>
+      <c r="B128" s="144"/>
       <c r="C128" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D128" s="129"/>
-      <c r="E128" s="103"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="100"/>
-      <c r="H128" s="100"/>
+      <c r="D128" s="148"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="122"/>
+      <c r="G128" s="122"/>
+      <c r="H128" s="122"/>
       <c r="I128" s="180"/>
       <c r="J128" s="180"/>
       <c r="K128" s="180"/>
       <c r="L128" s="180"/>
     </row>
     <row r="129" spans="1:12" ht="37.700000000000003" customHeight="1">
-      <c r="A129" s="123"/>
-      <c r="B129" s="126"/>
+      <c r="A129" s="110"/>
+      <c r="B129" s="144"/>
       <c r="C129" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D129" s="129"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="100"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
+      <c r="D129" s="148"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="122"/>
+      <c r="G129" s="122"/>
+      <c r="H129" s="122"/>
       <c r="I129" s="180"/>
       <c r="J129" s="180"/>
       <c r="K129" s="180"/>
       <c r="L129" s="180"/>
     </row>
     <row r="130" spans="1:12" ht="21" customHeight="1">
-      <c r="A130" s="123"/>
-      <c r="B130" s="126"/>
+      <c r="A130" s="110"/>
+      <c r="B130" s="144"/>
       <c r="C130" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D130" s="129"/>
-      <c r="E130" s="103"/>
-      <c r="F130" s="100"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
+      <c r="D130" s="148"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="122"/>
+      <c r="G130" s="122"/>
+      <c r="H130" s="122"/>
       <c r="I130" s="180"/>
       <c r="J130" s="180"/>
       <c r="K130" s="180"/>
       <c r="L130" s="180"/>
     </row>
     <row r="131" spans="1:12" ht="21" customHeight="1">
-      <c r="A131" s="124"/>
-      <c r="B131" s="127"/>
+      <c r="A131" s="111"/>
+      <c r="B131" s="145"/>
       <c r="C131" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="129"/>
-      <c r="E131" s="103"/>
-      <c r="F131" s="100"/>
-      <c r="G131" s="100"/>
-      <c r="H131" s="100"/>
+      <c r="D131" s="148"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="122"/>
+      <c r="G131" s="122"/>
+      <c r="H131" s="122"/>
       <c r="I131" s="180"/>
       <c r="J131" s="180"/>
       <c r="K131" s="180"/>
       <c r="L131" s="180"/>
     </row>
     <row r="132" spans="1:12" ht="21" customHeight="1">
-      <c r="A132" s="122">
+      <c r="A132" s="109">
         <v>5</v>
       </c>
-      <c r="B132" s="125" t="s">
+      <c r="B132" s="143" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D132" s="129"/>
-      <c r="E132" s="103"/>
-      <c r="F132" s="100"/>
-      <c r="G132" s="100"/>
-      <c r="H132" s="100"/>
+      <c r="D132" s="148"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
       <c r="I132" s="180"/>
       <c r="J132" s="180"/>
       <c r="K132" s="180"/>
       <c r="L132" s="180"/>
     </row>
     <row r="133" spans="1:12" ht="21" customHeight="1">
-      <c r="A133" s="123"/>
-      <c r="B133" s="126"/>
+      <c r="A133" s="110"/>
+      <c r="B133" s="144"/>
       <c r="C133" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D133" s="129"/>
-      <c r="E133" s="103"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="100"/>
+      <c r="D133" s="148"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="122"/>
+      <c r="G133" s="122"/>
+      <c r="H133" s="122"/>
       <c r="I133" s="180"/>
       <c r="J133" s="180"/>
       <c r="K133" s="180"/>
       <c r="L133" s="180"/>
     </row>
     <row r="134" spans="1:12" ht="36" customHeight="1">
-      <c r="A134" s="123"/>
-      <c r="B134" s="126"/>
+      <c r="A134" s="110"/>
+      <c r="B134" s="144"/>
       <c r="C134" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D134" s="129"/>
-      <c r="E134" s="103"/>
-      <c r="F134" s="100"/>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="122"/>
+      <c r="G134" s="122"/>
+      <c r="H134" s="122"/>
       <c r="I134" s="180"/>
       <c r="J134" s="180"/>
       <c r="K134" s="180"/>
       <c r="L134" s="180"/>
     </row>
     <row r="135" spans="1:12" ht="25.35" customHeight="1">
-      <c r="A135" s="123"/>
-      <c r="B135" s="126"/>
+      <c r="A135" s="110"/>
+      <c r="B135" s="144"/>
       <c r="C135" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="D135" s="129"/>
-      <c r="E135" s="103"/>
-      <c r="F135" s="100"/>
-      <c r="G135" s="100"/>
-      <c r="H135" s="100"/>
+      <c r="D135" s="148"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="122"/>
+      <c r="G135" s="122"/>
+      <c r="H135" s="122"/>
       <c r="I135" s="180"/>
       <c r="J135" s="180"/>
       <c r="K135" s="180"/>
       <c r="L135" s="180"/>
     </row>
     <row r="136" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A136" s="123"/>
-      <c r="B136" s="126"/>
+      <c r="A136" s="110"/>
+      <c r="B136" s="144"/>
       <c r="C136" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D136" s="129"/>
-      <c r="E136" s="103"/>
-      <c r="F136" s="100"/>
-      <c r="G136" s="100"/>
-      <c r="H136" s="100"/>
+      <c r="D136" s="148"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="122"/>
+      <c r="G136" s="122"/>
+      <c r="H136" s="122"/>
       <c r="I136" s="180"/>
       <c r="J136" s="180"/>
       <c r="K136" s="180"/>
       <c r="L136" s="180"/>
     </row>
     <row r="137" spans="1:12" ht="25.35" customHeight="1">
-      <c r="A137" s="124"/>
-      <c r="B137" s="127"/>
+      <c r="A137" s="111"/>
+      <c r="B137" s="145"/>
       <c r="C137" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D137" s="130"/>
-      <c r="E137" s="104"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="101"/>
-      <c r="H137" s="101"/>
+      <c r="D137" s="147"/>
+      <c r="E137" s="120"/>
+      <c r="F137" s="123"/>
+      <c r="G137" s="123"/>
+      <c r="H137" s="123"/>
       <c r="I137" s="180"/>
       <c r="J137" s="180"/>
       <c r="K137" s="180"/>
       <c r="L137" s="180"/>
     </row>
     <row r="138" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A138" s="137" t="s">
+      <c r="A138" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="B138" s="138"/>
-      <c r="C138" s="139"/>
+      <c r="B138" s="155"/>
+      <c r="C138" s="156"/>
       <c r="D138" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="E138" s="93" t="s">
+      <c r="E138" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="F138" s="94"/>
-      <c r="G138" s="95"/>
+      <c r="F138" s="158"/>
+      <c r="G138" s="159"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -5717,18 +5721,18 @@
       <c r="A139" s="43">
         <v>6</v>
       </c>
-      <c r="B139" s="140" t="s">
+      <c r="B139" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="141"/>
+      <c r="C139" s="150"/>
       <c r="D139" s="38">
         <v>44616</v>
       </c>
-      <c r="E139" s="96" t="s">
+      <c r="E139" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="F139" s="97"/>
-      <c r="G139" s="98"/>
+      <c r="F139" s="152"/>
+      <c r="G139" s="153"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
@@ -5736,19 +5740,19 @@
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A140" s="105" t="s">
+      <c r="A140" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="106"/>
-      <c r="C140" s="107"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="136"/>
       <c r="D140" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="E140" s="90" t="s">
+      <c r="E140" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="91"/>
-      <c r="G140" s="92"/>
+      <c r="F140" s="175"/>
+      <c r="G140" s="176"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
@@ -5756,231 +5760,231 @@
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" ht="19.7" customHeight="1">
-      <c r="A141" s="122">
+      <c r="A141" s="109">
         <v>1</v>
       </c>
-      <c r="B141" s="125" t="s">
+      <c r="B141" s="143" t="s">
         <v>262</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D141" s="128"/>
-      <c r="E141" s="102" t="s">
+      <c r="D141" s="146"/>
+      <c r="E141" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="F141" s="99" t="s">
+      <c r="F141" s="121" t="s">
         <v>264</v>
       </c>
-      <c r="G141" s="99" t="s">
+      <c r="G141" s="121" t="s">
         <v>265</v>
       </c>
-      <c r="H141" s="99"/>
+      <c r="H141" s="121"/>
       <c r="I141" s="180"/>
       <c r="J141" s="180"/>
       <c r="K141" s="180"/>
       <c r="L141" s="180"/>
     </row>
     <row r="142" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A142" s="123"/>
-      <c r="B142" s="126"/>
+      <c r="A142" s="110"/>
+      <c r="B142" s="144"/>
       <c r="C142" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="D142" s="129"/>
-      <c r="E142" s="103"/>
-      <c r="F142" s="100"/>
-      <c r="G142" s="100"/>
-      <c r="H142" s="100"/>
+      <c r="D142" s="148"/>
+      <c r="E142" s="119"/>
+      <c r="F142" s="122"/>
+      <c r="G142" s="122"/>
+      <c r="H142" s="122"/>
       <c r="I142" s="180"/>
       <c r="J142" s="180"/>
       <c r="K142" s="180"/>
       <c r="L142" s="180"/>
     </row>
     <row r="143" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A143" s="124"/>
-      <c r="B143" s="127"/>
+      <c r="A143" s="111"/>
+      <c r="B143" s="145"/>
       <c r="C143" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D143" s="130"/>
-      <c r="E143" s="104"/>
-      <c r="F143" s="101"/>
-      <c r="G143" s="101"/>
-      <c r="H143" s="101"/>
+      <c r="D143" s="147"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="123"/>
+      <c r="G143" s="123"/>
+      <c r="H143" s="123"/>
       <c r="I143" s="180"/>
       <c r="J143" s="180"/>
       <c r="K143" s="180"/>
       <c r="L143" s="180"/>
     </row>
     <row r="144" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A144" s="122">
+      <c r="A144" s="109">
         <v>2</v>
       </c>
-      <c r="B144" s="142" t="s">
+      <c r="B144" s="125" t="s">
         <v>268</v>
       </c>
       <c r="C144" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D144" s="99"/>
-      <c r="E144" s="102" t="s">
+      <c r="D144" s="121"/>
+      <c r="E144" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F144" s="99" t="s">
+      <c r="F144" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="G144" s="145" t="s">
+      <c r="G144" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="H144" s="145"/>
+      <c r="H144" s="115"/>
       <c r="I144" s="180"/>
       <c r="J144" s="180"/>
       <c r="K144" s="180"/>
       <c r="L144" s="180"/>
     </row>
     <row r="145" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A145" s="123"/>
-      <c r="B145" s="143"/>
+      <c r="A145" s="110"/>
+      <c r="B145" s="126"/>
       <c r="C145" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D145" s="100"/>
-      <c r="E145" s="103"/>
-      <c r="F145" s="100"/>
-      <c r="G145" s="146"/>
-      <c r="H145" s="146"/>
+      <c r="D145" s="122"/>
+      <c r="E145" s="119"/>
+      <c r="F145" s="122"/>
+      <c r="G145" s="116"/>
+      <c r="H145" s="116"/>
       <c r="I145" s="180"/>
       <c r="J145" s="180"/>
       <c r="K145" s="180"/>
       <c r="L145" s="180"/>
     </row>
     <row r="146" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="123"/>
-      <c r="B146" s="143"/>
+      <c r="A146" s="110"/>
+      <c r="B146" s="126"/>
       <c r="C146" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D146" s="100"/>
-      <c r="E146" s="103"/>
-      <c r="F146" s="100"/>
-      <c r="G146" s="146"/>
-      <c r="H146" s="146"/>
+      <c r="D146" s="122"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="122"/>
+      <c r="G146" s="116"/>
+      <c r="H146" s="116"/>
       <c r="I146" s="180"/>
       <c r="J146" s="180"/>
       <c r="K146" s="180"/>
       <c r="L146" s="180"/>
     </row>
     <row r="147" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A147" s="123"/>
-      <c r="B147" s="143"/>
+      <c r="A147" s="110"/>
+      <c r="B147" s="126"/>
       <c r="C147" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D147" s="100"/>
-      <c r="E147" s="103"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="146"/>
-      <c r="H147" s="146"/>
+      <c r="D147" s="122"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="122"/>
+      <c r="G147" s="116"/>
+      <c r="H147" s="116"/>
       <c r="I147" s="180"/>
       <c r="J147" s="180"/>
       <c r="K147" s="180"/>
       <c r="L147" s="180"/>
     </row>
     <row r="148" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A148" s="123"/>
-      <c r="B148" s="143"/>
+      <c r="A148" s="110"/>
+      <c r="B148" s="126"/>
       <c r="C148" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="D148" s="100"/>
-      <c r="E148" s="103"/>
-      <c r="F148" s="100"/>
-      <c r="G148" s="146"/>
-      <c r="H148" s="146"/>
+      <c r="D148" s="122"/>
+      <c r="E148" s="119"/>
+      <c r="F148" s="122"/>
+      <c r="G148" s="116"/>
+      <c r="H148" s="116"/>
       <c r="I148" s="180"/>
       <c r="J148" s="180"/>
       <c r="K148" s="180"/>
       <c r="L148" s="180"/>
     </row>
     <row r="149" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A149" s="123"/>
-      <c r="B149" s="143"/>
+      <c r="A149" s="110"/>
+      <c r="B149" s="126"/>
       <c r="C149" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D149" s="100"/>
-      <c r="E149" s="103"/>
-      <c r="F149" s="100"/>
-      <c r="G149" s="146"/>
-      <c r="H149" s="146"/>
+      <c r="D149" s="122"/>
+      <c r="E149" s="119"/>
+      <c r="F149" s="122"/>
+      <c r="G149" s="116"/>
+      <c r="H149" s="116"/>
       <c r="I149" s="180"/>
       <c r="J149" s="180"/>
       <c r="K149" s="180"/>
       <c r="L149" s="180"/>
     </row>
     <row r="150" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A150" s="123"/>
-      <c r="B150" s="143"/>
+      <c r="A150" s="110"/>
+      <c r="B150" s="126"/>
       <c r="C150" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D150" s="100"/>
-      <c r="E150" s="103"/>
-      <c r="F150" s="100"/>
-      <c r="G150" s="146"/>
-      <c r="H150" s="146"/>
+      <c r="D150" s="122"/>
+      <c r="E150" s="119"/>
+      <c r="F150" s="122"/>
+      <c r="G150" s="116"/>
+      <c r="H150" s="116"/>
       <c r="I150" s="180"/>
       <c r="J150" s="180"/>
       <c r="K150" s="180"/>
       <c r="L150" s="180"/>
     </row>
     <row r="151" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A151" s="123"/>
-      <c r="B151" s="143"/>
+      <c r="A151" s="110"/>
+      <c r="B151" s="126"/>
       <c r="C151" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D151" s="100"/>
-      <c r="E151" s="103"/>
-      <c r="F151" s="100"/>
-      <c r="G151" s="146"/>
-      <c r="H151" s="146"/>
+      <c r="D151" s="122"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="122"/>
+      <c r="G151" s="116"/>
+      <c r="H151" s="116"/>
       <c r="I151" s="180"/>
       <c r="J151" s="180"/>
       <c r="K151" s="180"/>
       <c r="L151" s="180"/>
     </row>
     <row r="152" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A152" s="124"/>
-      <c r="B152" s="144"/>
+      <c r="A152" s="111"/>
+      <c r="B152" s="127"/>
       <c r="C152" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="D152" s="101"/>
-      <c r="E152" s="104"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="147"/>
-      <c r="H152" s="147"/>
+      <c r="D152" s="123"/>
+      <c r="E152" s="120"/>
+      <c r="F152" s="123"/>
+      <c r="G152" s="117"/>
+      <c r="H152" s="117"/>
       <c r="I152" s="180"/>
       <c r="J152" s="180"/>
       <c r="K152" s="180"/>
       <c r="L152" s="180"/>
     </row>
     <row r="153" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A153" s="113" t="s">
+      <c r="A153" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B153" s="114"/>
-      <c r="C153" s="115"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="130"/>
       <c r="D153" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="E153" s="93" t="s">
+      <c r="E153" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F153" s="94"/>
-      <c r="G153" s="95"/>
+      <c r="F153" s="158"/>
+      <c r="G153" s="159"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
@@ -5988,241 +5992,241 @@
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A154" s="122">
+      <c r="A154" s="109">
         <v>3</v>
       </c>
-      <c r="B154" s="142" t="s">
+      <c r="B154" s="125" t="s">
         <v>280</v>
       </c>
       <c r="C154" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D154" s="128"/>
-      <c r="E154" s="102" t="s">
+      <c r="D154" s="146"/>
+      <c r="E154" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="F154" s="99" t="s">
+      <c r="F154" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="G154" s="99" t="s">
+      <c r="G154" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="H154" s="99"/>
+      <c r="H154" s="121"/>
       <c r="I154" s="180"/>
       <c r="J154" s="180"/>
       <c r="K154" s="180"/>
       <c r="L154" s="180"/>
     </row>
     <row r="155" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A155" s="123"/>
-      <c r="B155" s="143"/>
+      <c r="A155" s="110"/>
+      <c r="B155" s="126"/>
       <c r="C155" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D155" s="129"/>
-      <c r="E155" s="103"/>
-      <c r="F155" s="100"/>
-      <c r="G155" s="100"/>
-      <c r="H155" s="100"/>
+      <c r="D155" s="148"/>
+      <c r="E155" s="119"/>
+      <c r="F155" s="122"/>
+      <c r="G155" s="122"/>
+      <c r="H155" s="122"/>
       <c r="I155" s="180"/>
       <c r="J155" s="180"/>
       <c r="K155" s="180"/>
       <c r="L155" s="180"/>
     </row>
     <row r="156" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A156" s="123"/>
-      <c r="B156" s="143"/>
+      <c r="A156" s="110"/>
+      <c r="B156" s="126"/>
       <c r="C156" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D156" s="129"/>
-      <c r="E156" s="103"/>
-      <c r="F156" s="100"/>
-      <c r="G156" s="100"/>
-      <c r="H156" s="100"/>
+      <c r="D156" s="148"/>
+      <c r="E156" s="119"/>
+      <c r="F156" s="122"/>
+      <c r="G156" s="122"/>
+      <c r="H156" s="122"/>
       <c r="I156" s="180"/>
       <c r="J156" s="180"/>
       <c r="K156" s="180"/>
       <c r="L156" s="180"/>
     </row>
     <row r="157" spans="1:12" ht="19.350000000000001" customHeight="1">
-      <c r="A157" s="123"/>
-      <c r="B157" s="143"/>
+      <c r="A157" s="110"/>
+      <c r="B157" s="126"/>
       <c r="C157" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D157" s="129"/>
-      <c r="E157" s="103"/>
-      <c r="F157" s="100"/>
-      <c r="G157" s="100"/>
-      <c r="H157" s="100"/>
+      <c r="D157" s="148"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="122"/>
+      <c r="G157" s="122"/>
+      <c r="H157" s="122"/>
       <c r="I157" s="180"/>
       <c r="J157" s="180"/>
       <c r="K157" s="180"/>
       <c r="L157" s="180"/>
     </row>
     <row r="158" spans="1:12" ht="35.450000000000003" customHeight="1">
-      <c r="A158" s="123"/>
-      <c r="B158" s="143"/>
+      <c r="A158" s="110"/>
+      <c r="B158" s="126"/>
       <c r="C158" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D158" s="129"/>
-      <c r="E158" s="103"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="100"/>
+      <c r="D158" s="148"/>
+      <c r="E158" s="119"/>
+      <c r="F158" s="122"/>
+      <c r="G158" s="122"/>
+      <c r="H158" s="122"/>
       <c r="I158" s="180"/>
       <c r="J158" s="180"/>
       <c r="K158" s="180"/>
       <c r="L158" s="180"/>
     </row>
     <row r="159" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A159" s="124"/>
-      <c r="B159" s="144"/>
+      <c r="A159" s="111"/>
+      <c r="B159" s="127"/>
       <c r="C159" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D159" s="129"/>
-      <c r="E159" s="103"/>
-      <c r="F159" s="100"/>
-      <c r="G159" s="100"/>
-      <c r="H159" s="100"/>
+      <c r="D159" s="148"/>
+      <c r="E159" s="119"/>
+      <c r="F159" s="122"/>
+      <c r="G159" s="122"/>
+      <c r="H159" s="122"/>
       <c r="I159" s="180"/>
       <c r="J159" s="180"/>
       <c r="K159" s="180"/>
       <c r="L159" s="180"/>
     </row>
     <row r="160" spans="1:12" ht="35.450000000000003" customHeight="1">
-      <c r="A160" s="122">
+      <c r="A160" s="109">
         <v>4</v>
       </c>
-      <c r="B160" s="125" t="s">
+      <c r="B160" s="143" t="s">
         <v>289</v>
       </c>
       <c r="C160" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D160" s="129"/>
-      <c r="E160" s="103"/>
-      <c r="F160" s="100"/>
-      <c r="G160" s="100"/>
-      <c r="H160" s="100"/>
+      <c r="D160" s="148"/>
+      <c r="E160" s="119"/>
+      <c r="F160" s="122"/>
+      <c r="G160" s="122"/>
+      <c r="H160" s="122"/>
       <c r="I160" s="180"/>
       <c r="J160" s="180"/>
       <c r="K160" s="180"/>
       <c r="L160" s="180"/>
     </row>
     <row r="161" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A161" s="123"/>
-      <c r="B161" s="126"/>
+      <c r="A161" s="110"/>
+      <c r="B161" s="144"/>
       <c r="C161" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D161" s="129"/>
-      <c r="E161" s="103"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="100"/>
-      <c r="H161" s="100"/>
+      <c r="D161" s="148"/>
+      <c r="E161" s="119"/>
+      <c r="F161" s="122"/>
+      <c r="G161" s="122"/>
+      <c r="H161" s="122"/>
       <c r="I161" s="180"/>
       <c r="J161" s="180"/>
       <c r="K161" s="180"/>
       <c r="L161" s="180"/>
     </row>
     <row r="162" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A162" s="123"/>
-      <c r="B162" s="126"/>
+      <c r="A162" s="110"/>
+      <c r="B162" s="144"/>
       <c r="C162" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D162" s="129"/>
-      <c r="E162" s="103"/>
-      <c r="F162" s="100"/>
-      <c r="G162" s="100"/>
-      <c r="H162" s="100"/>
+      <c r="D162" s="148"/>
+      <c r="E162" s="119"/>
+      <c r="F162" s="122"/>
+      <c r="G162" s="122"/>
+      <c r="H162" s="122"/>
       <c r="I162" s="180"/>
       <c r="J162" s="180"/>
       <c r="K162" s="180"/>
       <c r="L162" s="180"/>
     </row>
     <row r="163" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="123"/>
-      <c r="B163" s="126"/>
+      <c r="A163" s="110"/>
+      <c r="B163" s="144"/>
       <c r="C163" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D163" s="129"/>
-      <c r="E163" s="103"/>
-      <c r="F163" s="100"/>
-      <c r="G163" s="100"/>
-      <c r="H163" s="100"/>
+      <c r="D163" s="148"/>
+      <c r="E163" s="119"/>
+      <c r="F163" s="122"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="122"/>
       <c r="I163" s="180"/>
       <c r="J163" s="180"/>
       <c r="K163" s="180"/>
       <c r="L163" s="180"/>
     </row>
     <row r="164" spans="1:12" ht="21" customHeight="1">
-      <c r="A164" s="123"/>
-      <c r="B164" s="126"/>
+      <c r="A164" s="110"/>
+      <c r="B164" s="144"/>
       <c r="C164" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D164" s="129"/>
-      <c r="E164" s="103"/>
-      <c r="F164" s="100"/>
-      <c r="G164" s="100"/>
-      <c r="H164" s="100"/>
+      <c r="D164" s="148"/>
+      <c r="E164" s="119"/>
+      <c r="F164" s="122"/>
+      <c r="G164" s="122"/>
+      <c r="H164" s="122"/>
       <c r="I164" s="180"/>
       <c r="J164" s="180"/>
       <c r="K164" s="180"/>
       <c r="L164" s="180"/>
     </row>
     <row r="165" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A165" s="123"/>
-      <c r="B165" s="126"/>
+      <c r="A165" s="110"/>
+      <c r="B165" s="144"/>
       <c r="C165" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="D165" s="129"/>
-      <c r="E165" s="103"/>
-      <c r="F165" s="100"/>
-      <c r="G165" s="100"/>
-      <c r="H165" s="100"/>
+      <c r="D165" s="148"/>
+      <c r="E165" s="119"/>
+      <c r="F165" s="122"/>
+      <c r="G165" s="122"/>
+      <c r="H165" s="122"/>
       <c r="I165" s="180"/>
       <c r="J165" s="180"/>
       <c r="K165" s="180"/>
       <c r="L165" s="180"/>
     </row>
     <row r="166" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A166" s="124"/>
-      <c r="B166" s="127"/>
+      <c r="A166" s="111"/>
+      <c r="B166" s="145"/>
       <c r="C166" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D166" s="130"/>
-      <c r="E166" s="104"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
+      <c r="D166" s="147"/>
+      <c r="E166" s="120"/>
+      <c r="F166" s="123"/>
+      <c r="G166" s="123"/>
+      <c r="H166" s="123"/>
       <c r="I166" s="180"/>
       <c r="J166" s="180"/>
       <c r="K166" s="180"/>
       <c r="L166" s="180"/>
     </row>
     <row r="167" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A167" s="137" t="s">
+      <c r="A167" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B167" s="138"/>
-      <c r="C167" s="139"/>
+      <c r="B167" s="155"/>
+      <c r="C167" s="156"/>
       <c r="D167" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="E167" s="93" t="s">
+      <c r="E167" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="F167" s="94"/>
-      <c r="G167" s="95"/>
+      <c r="F167" s="158"/>
+      <c r="G167" s="159"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="12"/>
@@ -6233,18 +6237,18 @@
       <c r="A168" s="43">
         <v>5</v>
       </c>
-      <c r="B168" s="140" t="s">
+      <c r="B168" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="141"/>
+      <c r="C168" s="150"/>
       <c r="D168" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="E168" s="96" t="s">
+      <c r="E168" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="F168" s="97"/>
-      <c r="G168" s="98"/>
+      <c r="F168" s="152"/>
+      <c r="G168" s="153"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
@@ -6260,11 +6264,11 @@
       <c r="D169" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="E169" s="90" t="s">
+      <c r="E169" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="F169" s="91"/>
-      <c r="G169" s="92"/>
+      <c r="F169" s="175"/>
+      <c r="G169" s="176"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
@@ -6272,157 +6276,157 @@
       <c r="L169" s="12"/>
     </row>
     <row r="170" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A170" s="122">
+      <c r="A170" s="109">
         <v>1</v>
       </c>
-      <c r="B170" s="125" t="s">
+      <c r="B170" s="143" t="s">
         <v>299</v>
       </c>
       <c r="C170" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D170" s="128"/>
-      <c r="E170" s="102" t="s">
+      <c r="D170" s="146"/>
+      <c r="E170" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="F170" s="99" t="s">
+      <c r="F170" s="121" t="s">
         <v>301</v>
       </c>
-      <c r="G170" s="99" t="s">
+      <c r="G170" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="H170" s="99"/>
+      <c r="H170" s="121"/>
       <c r="I170" s="180"/>
       <c r="J170" s="180"/>
       <c r="K170" s="180"/>
       <c r="L170" s="180"/>
     </row>
     <row r="171" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A171" s="123"/>
-      <c r="B171" s="126"/>
+      <c r="A171" s="110"/>
+      <c r="B171" s="144"/>
       <c r="C171" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D171" s="129"/>
-      <c r="E171" s="103"/>
-      <c r="F171" s="100"/>
-      <c r="G171" s="100"/>
-      <c r="H171" s="100"/>
+      <c r="D171" s="148"/>
+      <c r="E171" s="119"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
       <c r="I171" s="180"/>
       <c r="J171" s="180"/>
       <c r="K171" s="180"/>
       <c r="L171" s="180"/>
     </row>
     <row r="172" spans="1:12" ht="21" customHeight="1">
-      <c r="A172" s="123"/>
-      <c r="B172" s="126"/>
+      <c r="A172" s="110"/>
+      <c r="B172" s="144"/>
       <c r="C172" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D172" s="129"/>
-      <c r="E172" s="103"/>
-      <c r="F172" s="100"/>
-      <c r="G172" s="100"/>
-      <c r="H172" s="100"/>
+      <c r="D172" s="148"/>
+      <c r="E172" s="119"/>
+      <c r="F172" s="122"/>
+      <c r="G172" s="122"/>
+      <c r="H172" s="122"/>
       <c r="I172" s="180"/>
       <c r="J172" s="180"/>
       <c r="K172" s="180"/>
       <c r="L172" s="180"/>
     </row>
     <row r="173" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A173" s="123"/>
-      <c r="B173" s="126"/>
+      <c r="A173" s="110"/>
+      <c r="B173" s="144"/>
       <c r="C173" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D173" s="129"/>
-      <c r="E173" s="103"/>
-      <c r="F173" s="100"/>
-      <c r="G173" s="100"/>
-      <c r="H173" s="100"/>
+      <c r="D173" s="148"/>
+      <c r="E173" s="119"/>
+      <c r="F173" s="122"/>
+      <c r="G173" s="122"/>
+      <c r="H173" s="122"/>
       <c r="I173" s="180"/>
       <c r="J173" s="180"/>
       <c r="K173" s="180"/>
       <c r="L173" s="180"/>
     </row>
     <row r="174" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A174" s="123"/>
-      <c r="B174" s="126"/>
+      <c r="A174" s="110"/>
+      <c r="B174" s="144"/>
       <c r="C174" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D174" s="129"/>
-      <c r="E174" s="103"/>
-      <c r="F174" s="100"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="100"/>
+      <c r="D174" s="148"/>
+      <c r="E174" s="119"/>
+      <c r="F174" s="122"/>
+      <c r="G174" s="122"/>
+      <c r="H174" s="122"/>
       <c r="I174" s="180"/>
       <c r="J174" s="180"/>
       <c r="K174" s="180"/>
       <c r="L174" s="180"/>
     </row>
     <row r="175" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A175" s="123"/>
-      <c r="B175" s="126"/>
+      <c r="A175" s="110"/>
+      <c r="B175" s="144"/>
       <c r="C175" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D175" s="129"/>
-      <c r="E175" s="103"/>
-      <c r="F175" s="100"/>
-      <c r="G175" s="100"/>
-      <c r="H175" s="100"/>
+      <c r="D175" s="148"/>
+      <c r="E175" s="119"/>
+      <c r="F175" s="122"/>
+      <c r="G175" s="122"/>
+      <c r="H175" s="122"/>
       <c r="I175" s="180"/>
       <c r="J175" s="180"/>
       <c r="K175" s="180"/>
       <c r="L175" s="180"/>
     </row>
     <row r="176" spans="1:12" ht="24" customHeight="1">
-      <c r="A176" s="123"/>
-      <c r="B176" s="126"/>
+      <c r="A176" s="110"/>
+      <c r="B176" s="144"/>
       <c r="C176" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="D176" s="129"/>
-      <c r="E176" s="103"/>
-      <c r="F176" s="100"/>
-      <c r="G176" s="100"/>
-      <c r="H176" s="100"/>
+      <c r="D176" s="148"/>
+      <c r="E176" s="119"/>
+      <c r="F176" s="122"/>
+      <c r="G176" s="122"/>
+      <c r="H176" s="122"/>
       <c r="I176" s="180"/>
       <c r="J176" s="180"/>
       <c r="K176" s="180"/>
       <c r="L176" s="180"/>
     </row>
     <row r="177" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A177" s="124"/>
-      <c r="B177" s="127"/>
+      <c r="A177" s="111"/>
+      <c r="B177" s="145"/>
       <c r="C177" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D177" s="130"/>
-      <c r="E177" s="104"/>
-      <c r="F177" s="101"/>
-      <c r="G177" s="101"/>
-      <c r="H177" s="101"/>
+      <c r="D177" s="147"/>
+      <c r="E177" s="120"/>
+      <c r="F177" s="123"/>
+      <c r="G177" s="123"/>
+      <c r="H177" s="123"/>
       <c r="I177" s="180"/>
       <c r="J177" s="180"/>
       <c r="K177" s="180"/>
       <c r="L177" s="180"/>
     </row>
     <row r="178" spans="1:12" ht="24" customHeight="1">
-      <c r="A178" s="113" t="s">
+      <c r="A178" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B178" s="114"/>
-      <c r="C178" s="115"/>
+      <c r="B178" s="129"/>
+      <c r="C178" s="130"/>
       <c r="D178" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="E178" s="93" t="s">
+      <c r="E178" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="F178" s="94"/>
-      <c r="G178" s="95"/>
+      <c r="F178" s="158"/>
+      <c r="G178" s="159"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
@@ -6430,141 +6434,141 @@
       <c r="L178" s="12"/>
     </row>
     <row r="179" spans="1:12" ht="24" customHeight="1">
-      <c r="A179" s="122">
+      <c r="A179" s="109">
         <v>2</v>
       </c>
-      <c r="B179" s="125" t="s">
+      <c r="B179" s="143" t="s">
         <v>310</v>
       </c>
       <c r="C179" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D179" s="128"/>
-      <c r="E179" s="102" t="s">
+      <c r="D179" s="146"/>
+      <c r="E179" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F179" s="99" t="s">
+      <c r="F179" s="121" t="s">
         <v>312</v>
       </c>
-      <c r="G179" s="99" t="s">
+      <c r="G179" s="121" t="s">
         <v>313</v>
       </c>
-      <c r="H179" s="99"/>
+      <c r="H179" s="121"/>
       <c r="I179" s="180"/>
       <c r="J179" s="180"/>
       <c r="K179" s="180"/>
       <c r="L179" s="180"/>
     </row>
     <row r="180" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A180" s="123"/>
-      <c r="B180" s="126"/>
+      <c r="A180" s="110"/>
+      <c r="B180" s="144"/>
       <c r="C180" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="129"/>
-      <c r="E180" s="103"/>
-      <c r="F180" s="100"/>
-      <c r="G180" s="100"/>
-      <c r="H180" s="100"/>
+      <c r="D180" s="148"/>
+      <c r="E180" s="119"/>
+      <c r="F180" s="122"/>
+      <c r="G180" s="122"/>
+      <c r="H180" s="122"/>
       <c r="I180" s="180"/>
       <c r="J180" s="180"/>
       <c r="K180" s="180"/>
       <c r="L180" s="180"/>
     </row>
     <row r="181" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A181" s="123"/>
-      <c r="B181" s="126"/>
+      <c r="A181" s="110"/>
+      <c r="B181" s="144"/>
       <c r="C181" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="129"/>
-      <c r="E181" s="103"/>
-      <c r="F181" s="100"/>
-      <c r="G181" s="100"/>
-      <c r="H181" s="100"/>
+      <c r="D181" s="148"/>
+      <c r="E181" s="119"/>
+      <c r="F181" s="122"/>
+      <c r="G181" s="122"/>
+      <c r="H181" s="122"/>
       <c r="I181" s="180"/>
       <c r="J181" s="180"/>
       <c r="K181" s="180"/>
       <c r="L181" s="180"/>
     </row>
     <row r="182" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A182" s="123"/>
-      <c r="B182" s="126"/>
+      <c r="A182" s="110"/>
+      <c r="B182" s="144"/>
       <c r="C182" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="129"/>
-      <c r="E182" s="103"/>
-      <c r="F182" s="100"/>
-      <c r="G182" s="100"/>
-      <c r="H182" s="100"/>
+      <c r="D182" s="148"/>
+      <c r="E182" s="119"/>
+      <c r="F182" s="122"/>
+      <c r="G182" s="122"/>
+      <c r="H182" s="122"/>
       <c r="I182" s="180"/>
       <c r="J182" s="180"/>
       <c r="K182" s="180"/>
       <c r="L182" s="180"/>
     </row>
     <row r="183" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A183" s="123"/>
-      <c r="B183" s="126"/>
+      <c r="A183" s="110"/>
+      <c r="B183" s="144"/>
       <c r="C183" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="129"/>
-      <c r="E183" s="103"/>
-      <c r="F183" s="100"/>
-      <c r="G183" s="100"/>
-      <c r="H183" s="100"/>
+      <c r="D183" s="148"/>
+      <c r="E183" s="119"/>
+      <c r="F183" s="122"/>
+      <c r="G183" s="122"/>
+      <c r="H183" s="122"/>
       <c r="I183" s="180"/>
       <c r="J183" s="180"/>
       <c r="K183" s="180"/>
       <c r="L183" s="180"/>
     </row>
     <row r="184" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A184" s="123"/>
-      <c r="B184" s="126"/>
+      <c r="A184" s="110"/>
+      <c r="B184" s="144"/>
       <c r="C184" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="D184" s="129"/>
-      <c r="E184" s="103"/>
-      <c r="F184" s="100"/>
-      <c r="G184" s="100"/>
-      <c r="H184" s="100"/>
+      <c r="D184" s="148"/>
+      <c r="E184" s="119"/>
+      <c r="F184" s="122"/>
+      <c r="G184" s="122"/>
+      <c r="H184" s="122"/>
       <c r="I184" s="180"/>
       <c r="J184" s="180"/>
       <c r="K184" s="180"/>
       <c r="L184" s="180"/>
     </row>
     <row r="185" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A185" s="124"/>
-      <c r="B185" s="127"/>
+      <c r="A185" s="111"/>
+      <c r="B185" s="145"/>
       <c r="C185" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D185" s="130"/>
-      <c r="E185" s="104"/>
-      <c r="F185" s="101"/>
-      <c r="G185" s="101"/>
-      <c r="H185" s="101"/>
+      <c r="D185" s="147"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="123"/>
+      <c r="G185" s="123"/>
+      <c r="H185" s="123"/>
       <c r="I185" s="180"/>
       <c r="J185" s="180"/>
       <c r="K185" s="180"/>
       <c r="L185" s="180"/>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="113" t="s">
+      <c r="A186" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="114"/>
-      <c r="C186" s="115"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="130"/>
       <c r="D186" s="50">
         <v>44650</v>
       </c>
-      <c r="E186" s="93" t="s">
+      <c r="E186" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="F186" s="94"/>
-      <c r="G186" s="95"/>
+      <c r="F186" s="158"/>
+      <c r="G186" s="159"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -6572,19 +6576,19 @@
       <c r="L186" s="12"/>
     </row>
     <row r="187" spans="1:12" ht="18" customHeight="1">
-      <c r="A187" s="131" t="s">
+      <c r="A187" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="B187" s="132"/>
-      <c r="C187" s="133"/>
+      <c r="B187" s="161"/>
+      <c r="C187" s="162"/>
       <c r="D187" s="46">
         <v>45020</v>
       </c>
-      <c r="E187" s="134" t="s">
+      <c r="E187" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="F187" s="135"/>
-      <c r="G187" s="136"/>
+      <c r="F187" s="164"/>
+      <c r="G187" s="165"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="12"/>
@@ -6592,77 +6596,77 @@
       <c r="L187" s="12"/>
     </row>
     <row r="188" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A188" s="122">
+      <c r="A188" s="109">
         <v>3</v>
       </c>
-      <c r="B188" s="125" t="s">
+      <c r="B188" s="143" t="s">
         <v>320</v>
       </c>
       <c r="C188" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D188" s="128"/>
-      <c r="E188" s="102" t="s">
+      <c r="D188" s="146"/>
+      <c r="E188" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="F188" s="99" t="s">
+      <c r="F188" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="G188" s="99" t="s">
+      <c r="G188" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="H188" s="99"/>
+      <c r="H188" s="121"/>
       <c r="I188" s="180"/>
       <c r="J188" s="180"/>
       <c r="K188" s="180"/>
       <c r="L188" s="180"/>
     </row>
     <row r="189" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A189" s="123"/>
-      <c r="B189" s="126"/>
+      <c r="A189" s="110"/>
+      <c r="B189" s="144"/>
       <c r="C189" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="D189" s="129"/>
-      <c r="E189" s="103"/>
-      <c r="F189" s="100"/>
-      <c r="G189" s="100"/>
-      <c r="H189" s="100"/>
+      <c r="D189" s="148"/>
+      <c r="E189" s="119"/>
+      <c r="F189" s="122"/>
+      <c r="G189" s="122"/>
+      <c r="H189" s="122"/>
       <c r="I189" s="180"/>
       <c r="J189" s="180"/>
       <c r="K189" s="180"/>
       <c r="L189" s="180"/>
     </row>
     <row r="190" spans="1:12" ht="17.45" customHeight="1">
-      <c r="A190" s="124"/>
-      <c r="B190" s="127"/>
+      <c r="A190" s="111"/>
+      <c r="B190" s="145"/>
       <c r="C190" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D190" s="130"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="101"/>
-      <c r="G190" s="101"/>
-      <c r="H190" s="101"/>
+      <c r="D190" s="147"/>
+      <c r="E190" s="120"/>
+      <c r="F190" s="123"/>
+      <c r="G190" s="123"/>
+      <c r="H190" s="123"/>
       <c r="I190" s="180"/>
       <c r="J190" s="180"/>
       <c r="K190" s="180"/>
       <c r="L190" s="180"/>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="113" t="s">
+      <c r="A191" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B191" s="114"/>
-      <c r="C191" s="115"/>
+      <c r="B191" s="129"/>
+      <c r="C191" s="130"/>
       <c r="D191" s="50">
         <v>44657</v>
       </c>
-      <c r="E191" s="93" t="s">
+      <c r="E191" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="F191" s="94"/>
-      <c r="G191" s="95"/>
+      <c r="F191" s="158"/>
+      <c r="G191" s="159"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="12"/>
@@ -6670,77 +6674,77 @@
       <c r="L191" s="12"/>
     </row>
     <row r="192" spans="1:12" ht="18" customHeight="1">
-      <c r="A192" s="122">
+      <c r="A192" s="109">
         <v>4</v>
       </c>
-      <c r="B192" s="125" t="s">
+      <c r="B192" s="143" t="s">
         <v>325</v>
       </c>
       <c r="C192" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="D192" s="128"/>
-      <c r="E192" s="102" t="s">
+      <c r="D192" s="146"/>
+      <c r="E192" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="F192" s="99" t="s">
+      <c r="F192" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="G192" s="99" t="s">
+      <c r="G192" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="H192" s="99"/>
+      <c r="H192" s="121"/>
       <c r="I192" s="180"/>
       <c r="J192" s="180"/>
       <c r="K192" s="180"/>
       <c r="L192" s="180"/>
     </row>
     <row r="193" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A193" s="123"/>
-      <c r="B193" s="126"/>
+      <c r="A193" s="110"/>
+      <c r="B193" s="144"/>
       <c r="C193" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D193" s="129"/>
-      <c r="E193" s="103"/>
-      <c r="F193" s="100"/>
-      <c r="G193" s="100"/>
-      <c r="H193" s="100"/>
+      <c r="D193" s="148"/>
+      <c r="E193" s="119"/>
+      <c r="F193" s="122"/>
+      <c r="G193" s="122"/>
+      <c r="H193" s="122"/>
       <c r="I193" s="180"/>
       <c r="J193" s="180"/>
       <c r="K193" s="180"/>
       <c r="L193" s="180"/>
     </row>
     <row r="194" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A194" s="124"/>
-      <c r="B194" s="127"/>
+      <c r="A194" s="111"/>
+      <c r="B194" s="145"/>
       <c r="C194" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D194" s="130"/>
-      <c r="E194" s="104"/>
-      <c r="F194" s="101"/>
-      <c r="G194" s="101"/>
-      <c r="H194" s="101"/>
+      <c r="D194" s="147"/>
+      <c r="E194" s="120"/>
+      <c r="F194" s="123"/>
+      <c r="G194" s="123"/>
+      <c r="H194" s="123"/>
       <c r="I194" s="180"/>
       <c r="J194" s="180"/>
       <c r="K194" s="180"/>
       <c r="L194" s="180"/>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="113" t="s">
+      <c r="A195" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="B195" s="114"/>
-      <c r="C195" s="115"/>
+      <c r="B195" s="129"/>
+      <c r="C195" s="130"/>
       <c r="D195" s="50">
         <v>44662</v>
       </c>
-      <c r="E195" s="93" t="s">
+      <c r="E195" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F195" s="94"/>
-      <c r="G195" s="95"/>
+      <c r="F195" s="158"/>
+      <c r="G195" s="159"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -6748,17 +6752,17 @@
       <c r="L195" s="12"/>
     </row>
     <row r="196" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A196" s="116" t="s">
+      <c r="A196" s="168" t="s">
         <v>331</v>
       </c>
-      <c r="B196" s="117"/>
-      <c r="C196" s="117"/>
-      <c r="D196" s="118"/>
-      <c r="E196" s="119" t="s">
+      <c r="B196" s="169"/>
+      <c r="C196" s="169"/>
+      <c r="D196" s="170"/>
+      <c r="E196" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="F196" s="120"/>
-      <c r="G196" s="121"/>
+      <c r="F196" s="172"/>
+      <c r="G196" s="173"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
@@ -6856,20 +6860,20 @@
       <c r="H205" s="12"/>
     </row>
     <row r="206" spans="1:12" ht="54" customHeight="1">
-      <c r="A206" s="111"/>
-      <c r="B206" s="111"/>
+      <c r="A206" s="166"/>
+      <c r="B206" s="166"/>
       <c r="C206" s="180"/>
-      <c r="D206" s="112"/>
+      <c r="D206" s="167"/>
       <c r="E206" s="180"/>
       <c r="F206" s="180"/>
       <c r="G206" s="180"/>
       <c r="H206" s="180"/>
     </row>
     <row r="207" spans="1:12" ht="18" customHeight="1">
-      <c r="A207" s="111"/>
-      <c r="B207" s="111"/>
+      <c r="A207" s="166"/>
+      <c r="B207" s="166"/>
       <c r="C207" s="180"/>
-      <c r="D207" s="112"/>
+      <c r="D207" s="167"/>
       <c r="E207" s="180"/>
       <c r="F207" s="180"/>
       <c r="G207" s="180"/>
@@ -7081,361 +7085,24 @@
     </row>
   </sheetData>
   <mergeCells count="397">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="J29:J37"/>
-    <mergeCell ref="K29:K37"/>
-    <mergeCell ref="L29:L37"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="I38:I44"/>
-    <mergeCell ref="J38:J44"/>
-    <mergeCell ref="K38:K44"/>
-    <mergeCell ref="L38:L44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="G76:G83"/>
-    <mergeCell ref="H76:H83"/>
-    <mergeCell ref="I76:I83"/>
-    <mergeCell ref="J76:J83"/>
-    <mergeCell ref="K76:K83"/>
-    <mergeCell ref="L76:L83"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="E76:E83"/>
-    <mergeCell ref="F76:F83"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="L95:L105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A95:A105"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="D95:D105"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="F95:F105"/>
-    <mergeCell ref="G95:G105"/>
-    <mergeCell ref="H87:H93"/>
-    <mergeCell ref="I87:I93"/>
-    <mergeCell ref="J87:J93"/>
-    <mergeCell ref="K87:K93"/>
-    <mergeCell ref="L87:L93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="D87:D93"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="F87:F93"/>
-    <mergeCell ref="G87:G93"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="D110:D116"/>
-    <mergeCell ref="H95:H105"/>
-    <mergeCell ref="I95:I105"/>
-    <mergeCell ref="J95:J105"/>
-    <mergeCell ref="K95:K105"/>
-    <mergeCell ref="K110:K116"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L110:L116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="D118:D125"/>
-    <mergeCell ref="E118:E125"/>
-    <mergeCell ref="F118:F125"/>
-    <mergeCell ref="G118:G125"/>
-    <mergeCell ref="H118:H125"/>
-    <mergeCell ref="E110:E116"/>
-    <mergeCell ref="F110:F116"/>
-    <mergeCell ref="G110:G116"/>
-    <mergeCell ref="H110:H116"/>
-    <mergeCell ref="I110:I116"/>
-    <mergeCell ref="J110:J116"/>
-    <mergeCell ref="I118:I125"/>
-    <mergeCell ref="J118:J125"/>
-    <mergeCell ref="K118:K125"/>
-    <mergeCell ref="L118:L125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:D137"/>
-    <mergeCell ref="E127:E137"/>
-    <mergeCell ref="F127:F137"/>
-    <mergeCell ref="I132:I137"/>
-    <mergeCell ref="J132:J137"/>
-    <mergeCell ref="K132:K137"/>
-    <mergeCell ref="G127:G137"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="K127:K131"/>
-    <mergeCell ref="I141:I143"/>
-    <mergeCell ref="L127:L131"/>
-    <mergeCell ref="L132:L137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="L141:L143"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="H127:H137"/>
-    <mergeCell ref="J144:J152"/>
-    <mergeCell ref="K144:K152"/>
-    <mergeCell ref="L144:L152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="D154:D166"/>
-    <mergeCell ref="E154:E166"/>
-    <mergeCell ref="F154:F166"/>
-    <mergeCell ref="G154:G166"/>
-    <mergeCell ref="K160:K166"/>
-    <mergeCell ref="L160:L166"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="A144:A152"/>
-    <mergeCell ref="B144:B152"/>
-    <mergeCell ref="D144:D152"/>
-    <mergeCell ref="E144:E152"/>
-    <mergeCell ref="F144:F152"/>
-    <mergeCell ref="G144:G152"/>
-    <mergeCell ref="H144:H152"/>
-    <mergeCell ref="I144:I152"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="I154:I159"/>
-    <mergeCell ref="J154:J159"/>
-    <mergeCell ref="K154:K159"/>
-    <mergeCell ref="L154:L159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="B160:B166"/>
-    <mergeCell ref="I160:I166"/>
-    <mergeCell ref="J160:J166"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="E168:G168"/>
-    <mergeCell ref="H154:H166"/>
-    <mergeCell ref="I170:I177"/>
-    <mergeCell ref="J170:J177"/>
-    <mergeCell ref="K170:K177"/>
-    <mergeCell ref="L170:L177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A170:A177"/>
-    <mergeCell ref="B170:B177"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="E170:E177"/>
-    <mergeCell ref="F170:F177"/>
-    <mergeCell ref="G170:G177"/>
-    <mergeCell ref="I179:I185"/>
-    <mergeCell ref="J179:J185"/>
-    <mergeCell ref="K179:K185"/>
-    <mergeCell ref="L179:L185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A179:A185"/>
-    <mergeCell ref="B179:B185"/>
-    <mergeCell ref="D179:D185"/>
-    <mergeCell ref="E179:E185"/>
-    <mergeCell ref="F179:F185"/>
-    <mergeCell ref="G179:G185"/>
-    <mergeCell ref="I188:I190"/>
-    <mergeCell ref="J188:J190"/>
-    <mergeCell ref="K188:K190"/>
-    <mergeCell ref="L188:L190"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="F188:F190"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="I192:I194"/>
-    <mergeCell ref="J192:J194"/>
-    <mergeCell ref="K192:K194"/>
-    <mergeCell ref="L192:L194"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="G206:G207"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="E195:G195"/>
-    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="H206:H207"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="G192:G194"/>
+    <mergeCell ref="G188:G190"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="G141:G143"/>
+    <mergeCell ref="H192:H194"/>
+    <mergeCell ref="H188:H190"/>
+    <mergeCell ref="H179:H185"/>
+    <mergeCell ref="H170:H177"/>
+    <mergeCell ref="H141:H143"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="E94:G94"/>
@@ -7460,24 +7127,361 @@
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A214:B214"/>
     <mergeCell ref="A215:B215"/>
-    <mergeCell ref="H206:H207"/>
-    <mergeCell ref="E169:G169"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E186:G186"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="E140:G140"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="G192:G194"/>
-    <mergeCell ref="G188:G190"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="G141:G143"/>
-    <mergeCell ref="H192:H194"/>
-    <mergeCell ref="H188:H190"/>
-    <mergeCell ref="H179:H185"/>
-    <mergeCell ref="H170:H177"/>
-    <mergeCell ref="H141:H143"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="G206:G207"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="E195:G195"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="I192:I194"/>
+    <mergeCell ref="J192:J194"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="L192:L194"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="I188:I190"/>
+    <mergeCell ref="J188:J190"/>
+    <mergeCell ref="K188:K190"/>
+    <mergeCell ref="L188:L190"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="F188:F190"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="I179:I185"/>
+    <mergeCell ref="J179:J185"/>
+    <mergeCell ref="K179:K185"/>
+    <mergeCell ref="L179:L185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A179:A185"/>
+    <mergeCell ref="B179:B185"/>
+    <mergeCell ref="D179:D185"/>
+    <mergeCell ref="E179:E185"/>
+    <mergeCell ref="F179:F185"/>
+    <mergeCell ref="G179:G185"/>
+    <mergeCell ref="I170:I177"/>
+    <mergeCell ref="J170:J177"/>
+    <mergeCell ref="K170:K177"/>
+    <mergeCell ref="L170:L177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A170:A177"/>
+    <mergeCell ref="B170:B177"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="E170:E177"/>
+    <mergeCell ref="F170:F177"/>
+    <mergeCell ref="G170:G177"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="I154:I159"/>
+    <mergeCell ref="J154:J159"/>
+    <mergeCell ref="K154:K159"/>
+    <mergeCell ref="L154:L159"/>
+    <mergeCell ref="A160:A166"/>
+    <mergeCell ref="B160:B166"/>
+    <mergeCell ref="I160:I166"/>
+    <mergeCell ref="J160:J166"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="E168:G168"/>
+    <mergeCell ref="H154:H166"/>
+    <mergeCell ref="J144:J152"/>
+    <mergeCell ref="K144:K152"/>
+    <mergeCell ref="L144:L152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="D154:D166"/>
+    <mergeCell ref="E154:E166"/>
+    <mergeCell ref="F154:F166"/>
+    <mergeCell ref="G154:G166"/>
+    <mergeCell ref="K160:K166"/>
+    <mergeCell ref="L160:L166"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="A144:A152"/>
+    <mergeCell ref="B144:B152"/>
+    <mergeCell ref="D144:D152"/>
+    <mergeCell ref="E144:E152"/>
+    <mergeCell ref="F144:F152"/>
+    <mergeCell ref="G144:G152"/>
+    <mergeCell ref="H144:H152"/>
+    <mergeCell ref="I144:I152"/>
+    <mergeCell ref="I141:I143"/>
+    <mergeCell ref="L127:L131"/>
+    <mergeCell ref="L132:L137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="L141:L143"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="H127:H137"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:D137"/>
+    <mergeCell ref="E127:E137"/>
+    <mergeCell ref="F127:F137"/>
+    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="J132:J137"/>
+    <mergeCell ref="K132:K137"/>
+    <mergeCell ref="G127:G137"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="K127:K131"/>
+    <mergeCell ref="L110:L116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="D118:D125"/>
+    <mergeCell ref="E118:E125"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="G118:G125"/>
+    <mergeCell ref="H118:H125"/>
+    <mergeCell ref="E110:E116"/>
+    <mergeCell ref="F110:F116"/>
+    <mergeCell ref="G110:G116"/>
+    <mergeCell ref="H110:H116"/>
+    <mergeCell ref="I110:I116"/>
+    <mergeCell ref="J110:J116"/>
+    <mergeCell ref="I118:I125"/>
+    <mergeCell ref="J118:J125"/>
+    <mergeCell ref="K118:K125"/>
+    <mergeCell ref="L118:L125"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="H95:H105"/>
+    <mergeCell ref="I95:I105"/>
+    <mergeCell ref="J95:J105"/>
+    <mergeCell ref="K95:K105"/>
+    <mergeCell ref="K110:K116"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L95:L105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="D95:D105"/>
+    <mergeCell ref="E95:E105"/>
+    <mergeCell ref="F95:F105"/>
+    <mergeCell ref="G95:G105"/>
+    <mergeCell ref="H87:H93"/>
+    <mergeCell ref="I87:I93"/>
+    <mergeCell ref="J87:J93"/>
+    <mergeCell ref="K87:K93"/>
+    <mergeCell ref="L87:L93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="D87:D93"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="G87:G93"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="H76:H83"/>
+    <mergeCell ref="I76:I83"/>
+    <mergeCell ref="J76:J83"/>
+    <mergeCell ref="K76:K83"/>
+    <mergeCell ref="L76:L83"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="E76:E83"/>
+    <mergeCell ref="F76:F83"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="I38:I44"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="L38:L44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="J29:J37"/>
+    <mergeCell ref="K29:K37"/>
+    <mergeCell ref="L29:L37"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7485,9 +7489,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7668,16 +7675,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92A44A82-2614-4C35-A5F3-9CF57578C7A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F592E7F4-B493-475A-B17B-74E16FCC93CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7685,5 +7689,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F592E7F4-B493-475A-B17B-74E16FCC93CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92A44A82-2614-4C35-A5F3-9CF57578C7A9}"/>
 </file>